--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -558,7 +558,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="L2" t="b">
+      <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="inlineStr">
@@ -3160,7 +3160,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="L40" t="b">
+      <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="inlineStr">
@@ -3648,6 +3648,11 @@
           <t>Ajeromi</t>
         </is>
       </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>LVASA/2/1252/16</t>
+        </is>
+      </c>
       <c r="O47" t="inlineStr">
         <is>
           <t>tab13</t>
@@ -3712,6 +3717,11 @@
           <t>Ajeromi</t>
         </is>
       </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>LVASA/2/1252/17</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>tab13</t>
@@ -3983,6 +3993,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/24</t>
+        </is>
+      </c>
       <c r="O52" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -4047,6 +4062,11 @@
           <t>Epe</t>
         </is>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>LVASA/7/94/29</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr">
         <is>
           <t>tab16</t>
@@ -4175,7 +4195,7 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="L55" t="b">
+      <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="inlineStr">
@@ -4246,6 +4266,9 @@
         <is>
           <t>Yes</t>
         </is>
+      </c>
+      <c r="L56">
+        <v>2</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,13 +355,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE76"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="20" max="20" width="20.7109375" style="2" customWidth="1"/>
+    <col min="24" max="24" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -432,90 +432,130 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Settlement Locality.x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>enumeration_code.x</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>address.x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_house.x</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>mapping_id.x</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>data_entry_personnel.x</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>date_of_mapping.x</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Enumerator.x</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Status.x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>how_old_was_she_when_she_d</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>date_the_death_happened</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>who_is_in_the_best_positio</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>who_is_in_the_best_positio_2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>does_this_person_live_in_t</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>maternal_death_person_still</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>lga_name.y</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Settlement Locality.y</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>enumeration_code.y</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>address.y</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_house.y</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>mapping_id.y</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>data_entry_personnel.y</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>date_of_mapping.y</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Enumerator.y</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Status.y</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Selection</t>
         </is>
@@ -568,26 +608,39 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>18-IGBO-OLOMIO ISHAWO JUNCTION, ISHAWO</t>
+        </is>
+      </c>
+      <c r="O2">
+        <v>48</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Ganiu bello close Igbo olomu isawo road</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>LVASA/12/48/6</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -634,26 +687,44 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>FURELAWO/SAKA ADISA, ABULE ADO</t>
+        </is>
+      </c>
+      <c r="O3">
+        <v>994</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>8 Saka Adisa street onireke Amuwo Odofin</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>From barracks get bike to Saka adisa cross to the other side</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>LVASA/4/994/35</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -703,26 +774,44 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>OLOYE FAAJI, ISALE GANGAN</t>
+        </is>
+      </c>
+      <c r="O4">
+        <v>546</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>17 Isale gangan</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Ground floor  ,2nd room.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>LVASA/14/546/7</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>tab10</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>CHIJOKE CHUKWU EMEKA
 AJULU AFUSAT</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -772,26 +861,39 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>HON. S.A.I AKOGUN, AJARA ISALU</t>
+        </is>
+      </c>
+      <c r="O5">
+        <v>1144</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>A story beside yemmat clinic off Agric Road Ajara Topa Badagry</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>LVASA/6/1144/32</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -841,26 +943,39 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>HON. S.A.I AKOGUN, AJARA ISALU</t>
+        </is>
+      </c>
+      <c r="O6">
+        <v>1144</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>64, Ajara medical center off Agric gate isalu road Ajara Topa Badagry.</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>LVASA/6/1144/24</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -910,26 +1025,44 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
+          <t>FURELAWO/SAKA ADISA, ABULE ADO</t>
+        </is>
+      </c>
+      <c r="O7">
+        <v>994</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>3 fure lane off Saka Adisa street onireke Amuwo Odofin</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Get bike from barracks to fure lane,sho Infront of building</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>LVASA/4/994/59</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -979,26 +1112,39 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>18-IGBO-OLOMIO ISHAWO JUNCTION, ISHAWO</t>
+        </is>
+      </c>
+      <c r="O8">
+        <v>48</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>6 moshood amosa, isawo road</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>LVASA/12/48/84</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1048,26 +1194,39 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>SOLU ALADE I, SOLU ALADE</t>
+        </is>
+      </c>
+      <c r="O9">
+        <v>874</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Beside balogun House</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>LVASA/9/874/37</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1115,28 +1274,41 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10">
+        <v>6814</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>38 Fasali street</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>38 Fasali street bungalow</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LVASA/3/6814/18</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1186,26 +1358,44 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>ONWUNMI/ OPELOERU STREET, ORILE IGANMU</t>
+        </is>
+      </c>
+      <c r="O11">
+        <v>1632</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>12 opeloyeru close orile lagos</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>12 opeloyeru close orile lagos</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>LVASA/20/1632/17</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>tab8</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>3/6/2024 1</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>JOHNSON-BEZI ANTHONY
 Osemene Joshua Chukwunonso</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1255,26 +1445,44 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
+          <t>HON. S.A.I AKOGUN, AJARA ISALU</t>
+        </is>
+      </c>
+      <c r="O12">
+        <v>1144</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Ol  No 6 Olabisi Baoku Close Off Agric Road Ajara Topa isalu road Ajara Badagry.</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>The only flat in a stand alone bungalow.</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>LVASA/6/1144/55</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1321,26 +1529,39 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
+          <t>HON. S.A.I AKOGUN, AJARA ISALU</t>
+        </is>
+      </c>
+      <c r="O13">
+        <v>1144</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Olabisi Baoku Close Off Agric gate isalu road Ajara Topa Badagry.</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>LVASA/6/1144/56</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1388,23 +1609,33 @@
           <t>Somolu</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>OLORUNKEMI STREET, BARIGA</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Number 6, Olorunkemi street</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>tab5</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>AGBALAYA SEKINAT
 OLUDURO CHRISTIANA OLUWATOBI</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1452,23 +1683,33 @@
           <t>Somolu</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>OLORUNKEMI STREET, BARIGA</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>8 Olorunkemi street  bariga</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>tab5</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>AGBALAYA SEKINAT
 OLUDURO CHRISTIANA OLUWATOBI</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1515,26 +1756,39 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
+          <t>ADE OSHODI ST. AKINTOMIDE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="O16">
+        <v>1330</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>69b Akintomide street Ade oshodi, ijegun</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>LVASA/4/1330/12</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1584,26 +1838,44 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
+          <t>ADE OSHODI ST. AKINTOMIDE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="O17">
+        <v>1330</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>71 4Akintomide street Ade oshodi ijegun</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Walk through small black gate</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>LVASA/4/1330/17</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1653,26 +1925,39 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
+          <t>ADE OSHODI ST. AKINTOMIDE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="O18">
+        <v>1330</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>68 Ade oshodi ijegun</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>LVASA/4/1330/42</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1722,26 +2007,39 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
+          <t>IBASA / IBESE ROAD, IBESHE</t>
+        </is>
+      </c>
+      <c r="O19">
+        <v>1992</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>5 ibore compound ibasa ibeshe</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>LVASA/4/1992/3</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1796,26 +2094,39 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
+          <t>85 - 75 GASKIYA ROAD, ABETE</t>
+        </is>
+      </c>
+      <c r="O20">
+        <v>942</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>81 GASKIYA ROAD,BESIDES KD BAKERY ABETE IJORA 7UP BUS STOP APAPA IGANMU LAGOS.</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>LVASA/5/942/5</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>2024-03-06</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1865,26 +2176,39 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
+          <t>20/32 MAKOKO ROAD, MAKOKO</t>
+        </is>
+      </c>
+      <c r="O21">
+        <v>706</v>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>20b  Makoko road makoko Lagos</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>LVASA/15/706/3</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -1934,26 +2258,39 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
+          <t>20/32 MAKOKO ROAD, MAKOKO</t>
+        </is>
+      </c>
+      <c r="O22">
+        <v>706</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>13 Raimi Street Makoko road makoko Lagos</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>LVASA/15/706/22</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2003,26 +2340,39 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
+          <t>20/32 MAKOKO ROAD, MAKOKO</t>
+        </is>
+      </c>
+      <c r="O23">
+        <v>706</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>6 Raimi Street Makoko road makoko Lagos</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>LVASA/15/706/29</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2072,26 +2422,39 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
+          <t>20/32 MAKOKO ROAD, MAKOKO</t>
+        </is>
+      </c>
+      <c r="O24">
+        <v>706</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>24 Raimi Street Makoko road makoko Lagos</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>LVASA/15/706/35</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>2024-03-07</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2141,26 +2504,39 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O25">
+        <v>774</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Plot 22, Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>LVASA/6/774/52</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2210,26 +2586,39 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O26">
+        <v>774</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Plot, 31 Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
           <t>LVASA/6/774/60</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2279,26 +2668,39 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O27">
+        <v>774</v>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Plot 23, Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
           <t>LVASA/6/774/64</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2345,26 +2747,39 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O28">
+        <v>774</v>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Plot 27 Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
           <t>LVASA/6/774/67</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2411,26 +2826,44 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O29">
+        <v>774</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>A boungalow directly behind RCCG, Joshua Parish Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>A2 bedroom bungalow directly behind RCCG Joshua Parish Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
           <t>LVASA/6/774/74</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2480,26 +2913,39 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O30">
+        <v>774</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Plot 17, Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>LVASA/6/774/89</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2549,26 +2995,39 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
+          <t>IBASA / IBESE ROAD, IBESHE</t>
+        </is>
+      </c>
+      <c r="O31">
+        <v>1992</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>6 Odofin street ibasa</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>LVASA/4/1992/14</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2615,26 +3074,39 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
+          <t>IBASA / IBESE ROAD, IBESHE</t>
+        </is>
+      </c>
+      <c r="O32">
+        <v>1992</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>10 Odofin street ibasa</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>LVASA/4/1992/15</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2684,26 +3156,39 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
+          <t>IBASA / IBESE ROAD, IBESHE</t>
+        </is>
+      </c>
+      <c r="O33">
+        <v>1992</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>3 Esa compound</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>LVASA/4/1992/21</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2753,26 +3238,39 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
+          <t>IBASA / IBESE ROAD, IBESHE</t>
+        </is>
+      </c>
+      <c r="O34">
+        <v>1992</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>1 ibore compound ibasa</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>LVASA/4/1992/26</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2822,26 +3320,39 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
+          <t>IBASA / IBESE ROAD, IBESHE</t>
+        </is>
+      </c>
+      <c r="O35">
+        <v>1992</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>2 compound ibasa</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>LVASA/4/1992/28</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2891,26 +3402,39 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
+          <t>ONILEKERE / GANIYU AGURA, ONILEKERE</t>
+        </is>
+      </c>
+      <c r="O36">
+        <v>1034</v>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>6 Onilekere street</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>LVASA/11/1034/1</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>tab17</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>AROWOJOBE MOJEED O
 HAKEEM BOLANLE RASHEEDAT</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -2958,28 +3482,41 @@
           <t>Alimosho</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="O37">
+        <v>6978</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>6 OBASANJO ITAYOLA STREET</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>6 OBASANJO ITAYOLA STREET, A bungalow</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>LVASA/3/6978/12</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>tab3</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>MICHAEL GLORIA
 JOSIAH OGUNJOBI</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3029,26 +3566,39 @@
       </c>
       <c r="N38" t="inlineStr">
         <is>
+          <t>OLANIBI / BELLO, PAPA-AJAO</t>
+        </is>
+      </c>
+      <c r="O38">
+        <v>72</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>12 Awanatu street off Bello Mushin</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>LVASA/16/72/17</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3098,26 +3648,39 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
+          <t>GASKIYA 1, BADIA</t>
+        </is>
+      </c>
+      <c r="O39">
+        <v>532</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>126, Gaskiya college road off Ali dogo street</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>LVASA/5/532/9</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3170,26 +3733,39 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
+          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
+        </is>
+      </c>
+      <c r="O40">
+        <v>854</v>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>26b, Olorunsogo street</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>LVASA/9/854/35</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>tab2</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>MAKANJUOLA MOSHOOD
 ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3239,26 +3815,39 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
+          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+        </is>
+      </c>
+      <c r="O41">
+        <v>1406</v>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>4 celestial crescent ijegun Egba zone 2</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>LVASA/4/1406/8</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3305,26 +3894,44 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
+          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+        </is>
+      </c>
+      <c r="O42">
+        <v>1406</v>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>8 unity close ijegun Egba zone 2</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Beside block manufacturing site</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>LVASA/4/1406/32</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3374,26 +3981,39 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O43">
+        <v>774</v>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Zone C 1, Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>LVASA/6/774/98</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3443,26 +4063,44 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O44">
+        <v>774</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>14 Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Four bedroom bungalow.</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>LVASA/6/774/117</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>2024-03-09</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3512,26 +4150,39 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
+          <t>OLAIYA/RAMATU, MAKOKO</t>
+        </is>
+      </c>
+      <c r="O45">
+        <v>780</v>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>16, Ramotu Street Makoko road Lagos</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>LVASA/15/780/4</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3581,26 +4232,39 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
+          <t>OLAIYA/RAMATU, MAKOKO</t>
+        </is>
+      </c>
+      <c r="O46">
+        <v>780</v>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>1 Erejuwa Makoko road makoko Lagos</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>LVASA/15/780/20</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3650,26 +4314,39 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
+          <t>LIGALI / OJO ROAD, LAYENI</t>
+        </is>
+      </c>
+      <c r="O47">
+        <v>1252</v>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>No 31, ligali</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>LVASA/2/1252/16</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>tab13</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3719,26 +4396,39 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
+          <t>LIGALI / OJO ROAD, LAYENI</t>
+        </is>
+      </c>
+      <c r="O48">
+        <v>1252</v>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>No 33,ligali</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
           <t>LVASA/2/1252/17</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>tab13</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3788,26 +4478,39 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O49">
+        <v>774</v>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>25, Ogbe Itoga road community Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>LVASA/6/774/134</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3857,26 +4560,39 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O50">
+        <v>774</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>No 25 Alex Fieboh Str Itoga road Ogbe community Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>LVASA/6/774/142</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3926,26 +4642,44 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O51">
+        <v>774</v>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>No 25,Oremeta road, Ogbe community Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>First boys Quarter at  25, Oremeta junction Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>LVASA/6/774/162</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -3995,26 +4729,39 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
+          <t>IGA OBA ALARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="O52">
+        <v>94</v>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>7, Ajegunle Street Ilara</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>LVASA/7/94/24</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4064,26 +4811,39 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
+          <t>IGA OBA ALARA, MOJODA</t>
+        </is>
+      </c>
+      <c r="O53">
+        <v>94</v>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Odi Street, Ilara</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>LVASA/7/94/29</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4133,26 +4893,39 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+        </is>
+      </c>
+      <c r="O54">
+        <v>1732</v>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>6, MAURICE ABIMBOLA STREET BY EVEN ESTATE ADDO BADORE.</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
           <t>LVASA/8/1732/80</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4205,26 +4978,39 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="O55">
+        <v>1900</v>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Dr Dauda Beyioku str Opposite yemmat close</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/24</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4277,26 +5063,39 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
+        </is>
+      </c>
+      <c r="O56">
+        <v>1900</v>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
           <t>LVASA/8/1900/40</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>05/03/2024</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4346,26 +5145,39 @@
       </c>
       <c r="N57" t="inlineStr">
         <is>
+          <t>AJARA FARM SETTLEMENT, AJARA TOPA</t>
+        </is>
+      </c>
+      <c r="O57">
+        <v>1122</v>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Plot 14, new creature str off Agric Road Ajara Topa Badagry.</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
           <t>LVASA/6/1122/42</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4415,26 +5227,39 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="O58">
+        <v>1688</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>20 Moshalashi street Maza maza maza</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>LVASA/4/1688/11</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4481,26 +5306,39 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="O59">
+        <v>1688</v>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>15 Olayemi street maza maza</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>LVASA/4/1688/14</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4547,26 +5385,39 @@
       </c>
       <c r="N60" t="inlineStr">
         <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="O60">
+        <v>1688</v>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>11 Olayemi street maza maza</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
           <t>LVASA/4/1688/16</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4616,26 +5467,39 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
+          <t>RABIATU IDOWU, ILASA-MAJA</t>
+        </is>
+      </c>
+      <c r="O61">
+        <v>512</v>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>21 Araromi street off Layi Oyekanmi mushin Lagos</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
           <t>LVASA/16/512/22</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>tab12</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>ADEMOLA AKANDE
 RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4685,26 +5549,39 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
+          <t>NIMOTA STREET, SARI -IGANMU</t>
+        </is>
+      </c>
+      <c r="O62">
+        <v>202</v>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>6, Nimota street</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>LVASA/5/202/7</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>tab19</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>2024-03-11</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>OKUNOLA OLUWATOYIN
 OMOBAMIDELE SESI</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4754,26 +5631,39 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O63">
+        <v>774</v>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Line I, no 13 Ifesowapo Arowolo Community Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
           <t>LVASA/6/774/194</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4823,26 +5713,39 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="O64">
+        <v>1688</v>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>2 Olayemi street Maza maza</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
           <t>LVASA/4/1688/22</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4889,26 +5792,39 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="O65">
+        <v>1688</v>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>4 Olayemi street Maza maza</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>LVASA/4/1688/23</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -4958,26 +5874,39 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
+          <t>ARAROMI AREA, KETU EJIRIN</t>
+        </is>
+      </c>
+      <c r="O66">
+        <v>404</v>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>7, Oshokeji Street Ketu</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>LVASA/7/404/17</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5027,26 +5956,39 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
+          <t>FALODUN /ALAFIA STREET, OTTO</t>
+        </is>
+      </c>
+      <c r="O67">
+        <v>1680</v>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>18 falodun Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>LVASA/15/1680/26</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>tab6</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>2024-03-12</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>ODIAGBE JOHN
 BANKE OLOWU</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5096,26 +6038,39 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
+          <t>ALANISALAU/OLAOGUN, ISHAWO</t>
+        </is>
+      </c>
+      <c r="O68">
+        <v>28</v>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>From agric take a bike stop at Olukemi bustop. No26  , ISHAWO ikorodu  off Tayo Balogun street</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>LVASA/12/28/16</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>tab18</t>
         </is>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>AYOKU DAMILOLA
 SANNI EZEKIEL</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5165,26 +6120,39 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
+          <t>ILUNLA AREA/BEMARD ONYEMAKONOR, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O69">
+        <v>790</v>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>STT  pure water area, Mr Ogunesan compound.</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>LVASA/6/790/18</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5234,26 +6202,39 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
+          <t>92, LANGBASA ROAD, LANGBASA</t>
+        </is>
+      </c>
+      <c r="O70">
+        <v>1850</v>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>LANGBASA ROAD, TALL BUILDING WITH MARBEL WALL  OPPOSITE ECWA CHURCH   .</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>LVASA/8/1850/6</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>tab21</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>2024-03-13</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>MOUDU ROSEWA ROSEMARY
 EFFIONG HAPPINESS</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5301,23 +6282,33 @@
           <t>Kosofe</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>OLAOSEBIKAN/OLASEINDE STREET, AGILITI</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>5, OLASEINDE STREET AGILITI</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5367,26 +6358,39 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
+          <t>ILUNLA AREA/BEMARD ONYEMAKONOR, ARADAGUN</t>
+        </is>
+      </c>
+      <c r="O72">
+        <v>790</v>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Mum Aminat house, beside fishers of men church iu nla Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
           <t>LVASA/6/790/81</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5434,23 +6438,28 @@
           <t>Agege</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>22 Akindiya street</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
         <is>
           <t>tab7</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>EDOJAH RUTH HAPPINESS
 OLABIYI OLAJIDE</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5498,23 +6507,33 @@
           <t>Amuwo odofin</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>IJEGUN EGBA MARKET, IJEGUN</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>30 Olasonoye street ijegun market</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
         <is>
           <t>tab15</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5562,23 +6581,33 @@
           <t>Epe</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>9, Atake-Idodo Street</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
         <is>
           <t>tab16</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>OJO MOSHOOD ADEMUYIWA
 OMOBOLAJI LASISI</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>
@@ -5628,26 +6657,39 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
+          <t>OGUNLETI/KAZEEM, OJOTA</t>
+        </is>
+      </c>
+      <c r="O76">
+        <v>1966</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>2, RIALTO CLOSE OJOTA LAGOS</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
           <t>LVASA/13/1966/25</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>tab14</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>2024-03-15</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>ARANJU OLUKUNLE
 FUNMI AGBAJE</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6695,6 +6695,386 @@
         </is>
       </c>
     </row>
+    <row r="77">
+      <c r="A77">
+        <v>6499</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>ADE OSHODI/ALEBIOSU, IJEGUN</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>52 Ade oshodi</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>2024-03-16</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>6695</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Epe</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>2, Pobona College, Poka Epe</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>tab16</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>6789</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>6925</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>ISHAGA, ITIRE</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>41 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>41 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>6929</v>
+      </c>
+      <c r="B81">
+        <v>9</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>ISHAGA, ITIRE</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>31 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>31 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>2024-03-17</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM81"/>
+  <dimension ref="A1:AM83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1274,6 +1274,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>FASALI STREET, ABARANJE</t>
+        </is>
+      </c>
       <c r="O10">
         <v>6814</v>
       </c>
@@ -3482,6 +3487,11 @@
           <t>Alimosho</t>
         </is>
       </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>OBASANJO ITAOLA, IKOTUN</t>
+        </is>
+      </c>
       <c r="O37">
         <v>6978</v>
       </c>
@@ -6438,6 +6448,11 @@
           <t>Agege</t>
         </is>
       </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>AKINDIYA / OGBA ROAD, SANGO</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>22 Akindiya street</t>
@@ -7070,6 +7085,156 @@
         </is>
       </c>
       <c r="V81" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>7170</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Surulere</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>22 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Grey 2 story</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>7263</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H83">
+        <v>9</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
         <is>
           <t>Approved</t>
         </is>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM83"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7240,6 +7240,85 @@
         </is>
       </c>
     </row>
+    <row r="84">
+      <c r="A84">
+        <v>7748</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O84">
+        <v>188</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>LVASA/6/188/77</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM84"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7319,6 +7319,252 @@
         </is>
       </c>
     </row>
+    <row r="85">
+      <c r="A85">
+        <v>7905</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O85">
+        <v>1532</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/11</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>7917</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O86">
+        <v>1532</v>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/22</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>8369</v>
+      </c>
+      <c r="B87">
+        <v>5</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H87">
+        <v>9</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O87">
+        <v>180</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/40</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AT89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -560,6 +560,41 @@
           <t>Selection</t>
         </is>
       </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>description_to_aid_locatio</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>respondent_name</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>name_of_household_head</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>household_head_phone_number</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>alternative_phone_number</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_day_to_call</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>preferred_time_to_call</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -645,6 +680,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>1Ganiu bello close Igbo olomu isawo road</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>07038296227</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -729,6 +789,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>From barracks get bike to Saka adisa street no 8</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>Mr Emmanuel Onah080</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>08034855047</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>15:41:00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -816,6 +906,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>First floor ,2nd room</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>Muiz</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>08036488467</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Friday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>19:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -898,6 +1018,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>Down stairs Flat in the story building</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>Mr kelechi irokwe</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>07067285720</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>07067885720</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>09:34:00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -980,6 +1135,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>2nd flat by the left within the building.</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>Mrs Aiwoansoba  Racheal Anike</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>07060825513</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>11:24:00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1067,6 +1257,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>Front of building before entering gate</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>Mr Edwin Emeka</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>08162497086</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>11:17:00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1149,6 +1369,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>Landlord</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>Mrs adeagbo Shakirat</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>7013000603</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1231,6 +1481,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>A boys squarter with 2 rooms</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>Waliu Adekoya</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>09026332048</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>05:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1318,6 +1598,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>38 Fasali street bungalow</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>SHONEYE OLAJUWON</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>09049880707</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>17:27:00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1405,6 +1715,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>12 opeloyeru close orile lagos</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>Patience eze</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>08100541673</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1492,6 +1832,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>The only flat in a stand alone bungalow.</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>Mr Abass Muhammad</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>08060824258</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>06:18:00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1571,6 +1941,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>The 3rd flat on your left.</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>Mr Wander Sesewe</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>08080245145</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>07088765032</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>16:19:00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1645,6 +2050,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>Forth flat in the building starting from the main entrance</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>Mr Alle</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>08039486223</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>08030813604</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>Thursday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1719,6 +2159,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>Second floor flat 6 in building 9</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>Mr Vincent</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>08033081234</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>10:03:00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1885,6 +2355,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>Within</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>Mr Christopher Amuzo</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>08035158552</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>10:51:00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1967,6 +2467,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>Second room on the left</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP18" t="inlineStr">
+        <is>
+          <t>Mr Adeni oyamara</t>
+        </is>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>08121285180</t>
+        </is>
+      </c>
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>12:44:00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2049,6 +2579,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>Second on the right</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP19" t="inlineStr">
+        <is>
+          <t>Mrs Lawal</t>
+        </is>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>08058134250</t>
+        </is>
+      </c>
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>Thursday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>11:54:00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -2136,6 +2696,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN20" t="inlineStr">
+        <is>
+          <t>6th room of first entrance of boys quarter</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP20" t="inlineStr">
+        <is>
+          <t>Lawal Friday</t>
+        </is>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>08029551312</t>
+        </is>
+      </c>
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -2218,6 +2808,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP21" t="inlineStr">
+        <is>
+          <t>Mr Chukwudalu Asomugha</t>
+        </is>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>08060846087</t>
+        </is>
+      </c>
+      <c r="AR21" t="inlineStr">
+        <is>
+          <t>09091429087</t>
+        </is>
+      </c>
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -2300,6 +2920,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP22" t="inlineStr">
+        <is>
+          <t>Mrs Basirat Adeyemo</t>
+        </is>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>09112755027</t>
+        </is>
+      </c>
+      <c r="AS22" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -2382,6 +3027,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>Isiaka Ismahil</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>08095110100</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>09082460869</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -2464,6 +3139,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>Mr Edward Wuge</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>07031085061</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -2546,6 +3246,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>Plot 22, Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>Mr Oyeniyan Akanni</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>07015166033</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>11:34:00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -2628,6 +3358,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>A boungalow ajacent lightbearer school Olanipekun estate Aradagun.</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>Mr Mosunmola Jamiu</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>08032099990</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>07036157580</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>07:31:00</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -2710,6 +3475,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>Plot 25, Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>Mr Isa Muritala</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>09066201986</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>08110350553</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>11:56:00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -2789,6 +3589,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>A two bedroom flat behind 27 Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>Mr George Ajayi</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>08023589035</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>08023589035</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>12:28:00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -2873,6 +3708,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>Bungalow behind RCCG Joshua Parish Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>Mr Adesanmi James</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>08030713207</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>07:56:00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -2955,6 +3820,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>Plot 12 Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>Mr Olarenwaju Moses</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>08132714778</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>08:25:00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -3037,6 +3932,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>Second room</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>Mr Adewale</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>08125044230</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>09:13:00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -3116,6 +4041,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP32" t="inlineStr">
+        <is>
+          <t>Mr Stanley</t>
+        </is>
+      </c>
+      <c r="AQ32" t="inlineStr">
+        <is>
+          <t>09019225385</t>
+        </is>
+      </c>
+      <c r="AS32" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>09:31:00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -3198,6 +4148,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>Second room on the right</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP33" t="inlineStr">
+        <is>
+          <t>Amda Adedeji</t>
+        </is>
+      </c>
+      <c r="AQ33" t="inlineStr">
+        <is>
+          <t>07072329224</t>
+        </is>
+      </c>
+      <c r="AS33" t="inlineStr">
+        <is>
+          <t>Wednesday,Friday</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>09:58:00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -3280,6 +4260,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP34" t="inlineStr">
+        <is>
+          <t>Mrs Kafilat kushein</t>
+        </is>
+      </c>
+      <c r="AQ34" t="inlineStr">
+        <is>
+          <t>09033759886</t>
+        </is>
+      </c>
+      <c r="AS34" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>11:05:00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -3362,6 +4367,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN35" t="inlineStr">
+        <is>
+          <t>Second room on right</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP35" t="inlineStr">
+        <is>
+          <t>Mr Rahmon Alimi</t>
+        </is>
+      </c>
+      <c r="AQ35" t="inlineStr">
+        <is>
+          <t>07019282129</t>
+        </is>
+      </c>
+      <c r="AS35" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Friday</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>11:17:00</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -3444,6 +4479,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN36" t="inlineStr">
+        <is>
+          <t>1st room right down</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP36" t="inlineStr">
+        <is>
+          <t>Esther Aga</t>
+        </is>
+      </c>
+      <c r="AQ36" t="inlineStr">
+        <is>
+          <t>08063960014</t>
+        </is>
+      </c>
+      <c r="AS36" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -3531,6 +4596,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN37" t="inlineStr">
+        <is>
+          <t>6 OBASANJO ITAYOLA STREET</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP37" t="inlineStr">
+        <is>
+          <t>ME AKINLEYE</t>
+        </is>
+      </c>
+      <c r="AQ37" t="inlineStr">
+        <is>
+          <t>09068834634</t>
+        </is>
+      </c>
+      <c r="AR37" t="inlineStr">
+        <is>
+          <t>09068834634</t>
+        </is>
+      </c>
+      <c r="AS37" t="inlineStr">
+        <is>
+          <t>Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>14:28:00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -3613,6 +4713,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>First room by your left</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP38" t="inlineStr">
+        <is>
+          <t>Alhaja Olajide</t>
+        </is>
+      </c>
+      <c r="AQ38" t="inlineStr">
+        <is>
+          <t>07061975137</t>
+        </is>
+      </c>
+      <c r="AS38" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -3695,6 +4825,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN39" t="inlineStr">
+        <is>
+          <t>3rd room on the left in the building</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP39" t="inlineStr">
+        <is>
+          <t>Ruth Isaac</t>
+        </is>
+      </c>
+      <c r="AQ39" t="inlineStr">
+        <is>
+          <t>08062080928</t>
+        </is>
+      </c>
+      <c r="AS39" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -3780,6 +4940,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN40" t="inlineStr">
+        <is>
+          <t>First room by the left</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP40" t="inlineStr">
+        <is>
+          <t>Mariam Aina</t>
+        </is>
+      </c>
+      <c r="AQ40" t="inlineStr">
+        <is>
+          <t>07058843570</t>
+        </is>
+      </c>
+      <c r="AS40" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -3862,6 +5052,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>Engineer Daniel Ebo</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>08145484043</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>11:08:00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -3946,6 +5161,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>Philip Ligon</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>07046515550</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>13:31:00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -4028,6 +5268,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>Zone C bungalow Olaonipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>Mr Alalade  Stephen</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>08036338600</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>04:28:00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -4115,6 +5385,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>Four bedroom bungalow at Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>Mr Adeoye james</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>08033344815</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>07068313342</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>09:23:00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -4197,6 +5502,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>Kehinde Adetayo</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>08021361035</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>07012021975</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -4279,6 +5614,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>Mr Olamilekan Aina</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>08025295480</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -4361,6 +5721,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>Laide olamide</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>08162717636</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>Tuesday,Wednesday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>12:22:00</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -4443,6 +5828,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>Mrs joy</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>09061415450</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>09:03:00</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -4525,6 +5935,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>25 Itoga road Ogbe community Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>Mr Isah umar</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>08082253970</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>08082253970</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>06:37:00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -4607,6 +6052,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>24 Alex Fieboh Str Itoga road Ogbe Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>Mrs Kowor Blessing</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>09122724862</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
+        <is>
+          <t>09122274862</t>
+        </is>
+      </c>
+      <c r="AS50" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT50" t="inlineStr">
+        <is>
+          <t>06:36:00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -4694,6 +6174,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>Uncompleted boys Quarter at oremeta junction Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP51" t="inlineStr">
+        <is>
+          <t>Mr Ismila  Ibrahim</t>
+        </is>
+      </c>
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>07065520016</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>07:29:00</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -4776,6 +6286,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>Upstairs (second room by the left)</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="AP52" t="inlineStr">
+        <is>
+          <t>Iya Ejiro</t>
+        </is>
+      </c>
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>07033268458</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>07033268458</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Thursday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
+        <is>
+          <t>14:14:00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -4858,6 +6403,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN53" t="inlineStr">
+        <is>
+          <t>The first apartment in the building</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP53" t="inlineStr">
+        <is>
+          <t>High Chief Juwo of Ilara Kingdom (Alhaji Adamo Afuye)</t>
+        </is>
+      </c>
+      <c r="AQ53" t="inlineStr">
+        <is>
+          <t>07039687507</t>
+        </is>
+      </c>
+      <c r="AR53" t="inlineStr">
+        <is>
+          <t>07039687507</t>
+        </is>
+      </c>
+      <c r="AS53" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT53" t="inlineStr">
+        <is>
+          <t>16:41:00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -4940,6 +6520,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN54" t="inlineStr">
+        <is>
+          <t>First room from the entrance second building in the compound</t>
+        </is>
+      </c>
+      <c r="AO54" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP54" t="inlineStr">
+        <is>
+          <t>Omolara Oguntayo</t>
+        </is>
+      </c>
+      <c r="AQ54" t="inlineStr">
+        <is>
+          <t>8134238422</t>
+        </is>
+      </c>
+      <c r="AS54" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT54" t="inlineStr">
+        <is>
+          <t>14:16:00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -5025,6 +6635,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN55" t="inlineStr">
+        <is>
+          <t>Building 24 is built facing the road. It's entrance leads to building 25. It has flowers by the entrance of the 2nd gate</t>
+        </is>
+      </c>
+      <c r="AO55" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP55" t="inlineStr">
+        <is>
+          <t>Mr Safari Awere</t>
+        </is>
+      </c>
+      <c r="AQ55" t="inlineStr">
+        <is>
+          <t>8033053819</t>
+        </is>
+      </c>
+      <c r="AR55" t="inlineStr">
+        <is>
+          <t>9029642991</t>
+        </is>
+      </c>
+      <c r="AS55" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT55" t="inlineStr">
+        <is>
+          <t>18:40:00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -5110,6 +6755,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN56" t="inlineStr">
+        <is>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP56" t="inlineStr">
+        <is>
+          <t>Mr Emmanuel Nweke</t>
+        </is>
+      </c>
+      <c r="AQ56" t="inlineStr">
+        <is>
+          <t>9034159246</t>
+        </is>
+      </c>
+      <c r="AS56" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT56" t="inlineStr">
+        <is>
+          <t>16:57:00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -5192,6 +6867,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN57" t="inlineStr">
+        <is>
+          <t>Plot 14, The bungalow on the left hand side within along the road.</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP57" t="inlineStr">
+        <is>
+          <t>Mr John Adeopa</t>
+        </is>
+      </c>
+      <c r="AQ57" t="inlineStr">
+        <is>
+          <t>08081430626</t>
+        </is>
+      </c>
+      <c r="AS57" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT57" t="inlineStr">
+        <is>
+          <t>05:21:00</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -5274,6 +6979,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN58" t="inlineStr">
+        <is>
+          <t>Boys quarter</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP58" t="inlineStr">
+        <is>
+          <t>Mr Ibrahim Lawal</t>
+        </is>
+      </c>
+      <c r="AQ58" t="inlineStr">
+        <is>
+          <t>08177199925</t>
+        </is>
+      </c>
+      <c r="AR58" t="inlineStr">
+        <is>
+          <t>08092925903</t>
+        </is>
+      </c>
+      <c r="AS58" t="inlineStr">
+        <is>
+          <t>Wednesday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT58" t="inlineStr">
+        <is>
+          <t>13:46:00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -5353,6 +7093,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN59" t="inlineStr">
+        <is>
+          <t>Third room on the left</t>
+        </is>
+      </c>
+      <c r="AO59" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP59" t="inlineStr">
+        <is>
+          <t>Mr Kehinde Rafiu</t>
+        </is>
+      </c>
+      <c r="AQ59" t="inlineStr">
+        <is>
+          <t>08163626024</t>
+        </is>
+      </c>
+      <c r="AR59" t="inlineStr">
+        <is>
+          <t>09073243221</t>
+        </is>
+      </c>
+      <c r="AS59" t="inlineStr">
+        <is>
+          <t>Wednesday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT59" t="inlineStr">
+        <is>
+          <t>10:47:00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -5432,6 +7207,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN60" t="inlineStr">
+        <is>
+          <t>First room on right</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP60" t="inlineStr">
+        <is>
+          <t>M Ridwan OLarewàju</t>
+        </is>
+      </c>
+      <c r="AQ60" t="inlineStr">
+        <is>
+          <t>09028658301</t>
+        </is>
+      </c>
+      <c r="AR60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AS60" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT60" t="inlineStr">
+        <is>
+          <t>07:16:00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -5514,6 +7324,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN61" t="inlineStr">
+        <is>
+          <t>Top floor</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP61" t="inlineStr">
+        <is>
+          <t>Mr Dami Idris</t>
+        </is>
+      </c>
+      <c r="AQ61" t="inlineStr">
+        <is>
+          <t>07031298085</t>
+        </is>
+      </c>
+      <c r="AS61" t="inlineStr">
+        <is>
+          <t>Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -5596,6 +7436,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN62" t="inlineStr">
+        <is>
+          <t>6th room of boys quarter of the first building on the left</t>
+        </is>
+      </c>
+      <c r="AO62" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP62" t="inlineStr">
+        <is>
+          <t>Abdulgani Hussain</t>
+        </is>
+      </c>
+      <c r="AQ62" t="inlineStr">
+        <is>
+          <t>08103115174</t>
+        </is>
+      </c>
+      <c r="AR62" t="inlineStr">
+        <is>
+          <t>09134690214</t>
+        </is>
+      </c>
+      <c r="AS62" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT62" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -5678,6 +7553,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN63" t="inlineStr">
+        <is>
+          <t>Bungalow at No 13 line I off Oremeji Ifesowapo Arowolo Community.</t>
+        </is>
+      </c>
+      <c r="AO63" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP63" t="inlineStr">
+        <is>
+          <t>Mr Orishabinone Rapheal</t>
+        </is>
+      </c>
+      <c r="AQ63" t="inlineStr">
+        <is>
+          <t>07033149708</t>
+        </is>
+      </c>
+      <c r="AS63" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT63" t="inlineStr">
+        <is>
+          <t>07:24:00</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -5760,6 +7665,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN64" t="inlineStr">
+        <is>
+          <t>Within the building</t>
+        </is>
+      </c>
+      <c r="AO64" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP64" t="inlineStr">
+        <is>
+          <t>Mr Apeh</t>
+        </is>
+      </c>
+      <c r="AQ64" t="inlineStr">
+        <is>
+          <t>08073257595</t>
+        </is>
+      </c>
+      <c r="AR64" t="inlineStr">
+        <is>
+          <t>08073257595</t>
+        </is>
+      </c>
+      <c r="AS64" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="AT64" t="inlineStr">
+        <is>
+          <t>10:57:00</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -5839,6 +7779,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN65" t="inlineStr">
+        <is>
+          <t>Within the building</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP65" t="inlineStr">
+        <is>
+          <t>Mr   John Benjamin</t>
+        </is>
+      </c>
+      <c r="AQ65" t="inlineStr">
+        <is>
+          <t>08140390472</t>
+        </is>
+      </c>
+      <c r="AR65" t="inlineStr">
+        <is>
+          <t>08139357548</t>
+        </is>
+      </c>
+      <c r="AS65" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT65" t="inlineStr">
+        <is>
+          <t>11:22:00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -5921,6 +7896,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN66" t="inlineStr">
+        <is>
+          <t>Second room by left</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP66" t="inlineStr">
+        <is>
+          <t>Mr Idowu David</t>
+        </is>
+      </c>
+      <c r="AQ66" t="inlineStr">
+        <is>
+          <t>07044866156</t>
+        </is>
+      </c>
+      <c r="AS66" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr">
+        <is>
+          <t>11:18:00</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -6003,6 +8008,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO67" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP67" t="inlineStr">
+        <is>
+          <t>Christopher Patrik</t>
+        </is>
+      </c>
+      <c r="AQ67" t="inlineStr">
+        <is>
+          <t>08188850946</t>
+        </is>
+      </c>
+      <c r="AS67" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT67" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -6085,6 +8115,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN68" t="inlineStr">
+        <is>
+          <t>From agric take a bike stop at Olukemi bustop. No26  , ISHAWO ikorodu  off Tayo Balogun street</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP68" t="inlineStr">
+        <is>
+          <t>Mrs nenty David</t>
+        </is>
+      </c>
+      <c r="AQ68" t="inlineStr">
+        <is>
+          <t>09051083245</t>
+        </is>
+      </c>
+      <c r="AS68" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT68" t="inlineStr">
+        <is>
+          <t>08:40:00</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -6167,6 +8227,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN69" t="inlineStr">
+        <is>
+          <t>The building behind Mrs Ogunesan shop, 2nd flat.</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Live-in Caregiver</t>
+        </is>
+      </c>
+      <c r="AP69" t="inlineStr">
+        <is>
+          <t>Iya Bolu</t>
+        </is>
+      </c>
+      <c r="AR69" t="inlineStr">
+        <is>
+          <t>08020722736</t>
+        </is>
+      </c>
+      <c r="AS69" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="AT69" t="inlineStr">
+        <is>
+          <t>14:29:00</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -6249,6 +8339,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN70" t="inlineStr">
+        <is>
+          <t>First room in the building</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP70" t="inlineStr">
+        <is>
+          <t>Mrs  Adidas Beatrice</t>
+        </is>
+      </c>
+      <c r="AQ70" t="inlineStr">
+        <is>
+          <t>08132580469</t>
+        </is>
+      </c>
+      <c r="AS70" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT70" t="inlineStr">
+        <is>
+          <t>09:00:00</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -6323,6 +8443,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO71" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP71" t="inlineStr">
+        <is>
+          <t>MR ALLI</t>
+        </is>
+      </c>
+      <c r="AQ71" t="inlineStr">
+        <is>
+          <t>08102200751</t>
+        </is>
+      </c>
+      <c r="AR71" t="inlineStr">
+        <is>
+          <t>08108223273</t>
+        </is>
+      </c>
+      <c r="AS71" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT71" t="inlineStr">
+        <is>
+          <t>13:41:00</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -6405,6 +8555,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN72" t="inlineStr">
+        <is>
+          <t>Mum Aminat house beside fishers of men Ilu nla Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="AP72" t="inlineStr">
+        <is>
+          <t>Dad Aminat</t>
+        </is>
+      </c>
+      <c r="AS72" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT72" t="inlineStr">
+        <is>
+          <t>11:55:00</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -6479,6 +8654,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN73" t="inlineStr">
+        <is>
+          <t>22 Akindiya street</t>
+        </is>
+      </c>
+      <c r="AO73" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP73" t="inlineStr">
+        <is>
+          <t>Joel Nwogbe</t>
+        </is>
+      </c>
+      <c r="AQ73" t="inlineStr">
+        <is>
+          <t>08037405768</t>
+        </is>
+      </c>
+      <c r="AS73" t="inlineStr">
+        <is>
+          <t>Wednesday,Thursday,Friday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT73" t="inlineStr">
+        <is>
+          <t>13:38:00</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -6553,6 +8758,36 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN74" t="inlineStr">
+        <is>
+          <t>Ground floor</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP74" t="inlineStr">
+        <is>
+          <t>Mr Nnaji</t>
+        </is>
+      </c>
+      <c r="AQ74" t="inlineStr">
+        <is>
+          <t>09135754333</t>
+        </is>
+      </c>
+      <c r="AS74" t="inlineStr">
+        <is>
+          <t>Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT74" t="inlineStr">
+        <is>
+          <t>10:57:00</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -6627,6 +8862,41 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN75" t="inlineStr">
+        <is>
+          <t>The first room by the right</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP75" t="inlineStr">
+        <is>
+          <t>Mr Abass Kamilu</t>
+        </is>
+      </c>
+      <c r="AQ75" t="inlineStr">
+        <is>
+          <t>07061633860</t>
+        </is>
+      </c>
+      <c r="AR75" t="inlineStr">
+        <is>
+          <t>07065146296</t>
+        </is>
+      </c>
+      <c r="AS75" t="inlineStr">
+        <is>
+          <t>Monday,Wednesday,Thursday</t>
+        </is>
+      </c>
+      <c r="AT75" t="inlineStr">
+        <is>
+          <t>10:53:00</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -6709,6 +8979,31 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP76" t="inlineStr">
+        <is>
+          <t>MR ADIGUN NOHEEM OLUFEMI</t>
+        </is>
+      </c>
+      <c r="AQ76" t="inlineStr">
+        <is>
+          <t>08035118044</t>
+        </is>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT76" t="inlineStr">
+        <is>
+          <t>14:01:00</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -6783,10 +9078,40 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN77" t="inlineStr">
+        <is>
+          <t>Behind</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP77" t="inlineStr">
+        <is>
+          <t>Mr Adeoye Sola</t>
+        </is>
+      </c>
+      <c r="AQ77" t="inlineStr">
+        <is>
+          <t>08162476439</t>
+        </is>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT77" t="inlineStr">
+        <is>
+          <t>09:27:00</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>6695</v>
+        <v>6499</v>
       </c>
       <c r="B78">
         <v>2</v>
@@ -6811,7 +9136,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -6823,51 +9148,81 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+          <t>ADE OSHODI/ALEBIOSU, IJEGUN</t>
         </is>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>2, Pobona College, Poka Epe</t>
+          <t>52 Ade oshodi</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab15</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN78" t="inlineStr">
+        <is>
+          <t>Behind</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP78" t="inlineStr">
+        <is>
+          <t>Mr Adeoye Sola</t>
+        </is>
+      </c>
+      <c r="AQ78" t="inlineStr">
+        <is>
+          <t>08162476439</t>
+        </is>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>Thursday,Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT78" t="inlineStr">
+        <is>
+          <t>09:27:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>6789</v>
+        <v>6695</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D79">
@@ -6888,7 +9243,7 @@
         <v>1</v>
       </c>
       <c r="J79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -6897,51 +9252,86 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>AYEDUN BUSTOP, MOWO</t>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>2, Pobona College, Poka Epe</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN79" t="inlineStr">
+        <is>
+          <t>Second room</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP79" t="inlineStr">
+        <is>
+          <t>Mr Olalere Paul</t>
+        </is>
+      </c>
+      <c r="AQ79" t="inlineStr">
+        <is>
+          <t>08060706488</t>
+        </is>
+      </c>
+      <c r="AR79" t="inlineStr">
+        <is>
+          <t>08129110467</t>
+        </is>
+      </c>
+      <c r="AS79" t="inlineStr">
+        <is>
+          <t>Thursday,Friday</t>
+        </is>
+      </c>
+      <c r="AT79" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>6925</v>
+        <v>6789</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80">
@@ -6962,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -6971,56 +9361,86 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>AYEDUN BUSTOP, MOWO</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>41 ishaga road itire surulere</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>41 ishaga road itire surulere</t>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN80" t="inlineStr">
+        <is>
+          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP80" t="inlineStr">
+        <is>
+          <t>Mr Ayeni Stephen</t>
+        </is>
+      </c>
+      <c r="AQ80" t="inlineStr">
+        <is>
+          <t>08037717004</t>
+        </is>
+      </c>
+      <c r="AR80" t="inlineStr">
+        <is>
+          <t>08037327997</t>
+        </is>
+      </c>
+      <c r="AS80" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT80" t="inlineStr">
+        <is>
+          <t>05:52:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>6929</v>
+        <v>6925</v>
       </c>
       <c r="B81">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D81">
@@ -7060,12 +9480,12 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>31 ishaga road itire surulere</t>
+          <t>41 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>31 ishaga road itire surulere</t>
+          <t>41 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7087,19 +9507,49 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN81" t="inlineStr">
+        <is>
+          <t>Room 2</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP81" t="inlineStr">
+        <is>
+          <t>Odushina bimpe</t>
+        </is>
+      </c>
+      <c r="AQ81" t="inlineStr">
+        <is>
+          <t>08023821284</t>
+        </is>
+      </c>
+      <c r="AS81" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT81" t="inlineStr">
+        <is>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>7170</v>
+        <v>6929</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D82">
@@ -7134,17 +9584,17 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+          <t>ISHAGA, ITIRE</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>22 falohun street orile surulere</t>
+          <t>31 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>Grey 2 story</t>
+          <t>31 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -7154,7 +9604,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -7166,19 +9616,49 @@
       <c r="V82" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN82" t="inlineStr">
+        <is>
+          <t>Room 7</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP82" t="inlineStr">
+        <is>
+          <t>Taofeek Jimoh</t>
+        </is>
+      </c>
+      <c r="AQ82" t="inlineStr">
+        <is>
+          <t>08162453535</t>
+        </is>
+      </c>
+      <c r="AS82" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT82" t="inlineStr">
+        <is>
+          <t>12:29:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>7263</v>
+        <v>7170</v>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D83">
@@ -7193,10 +9673,13 @@
         </is>
       </c>
       <c r="H83">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
       </c>
       <c r="J83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -7205,44 +9688,79 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Surulere</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>SINGBOMEH COMPOUND, MOWO</t>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>22 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Grey 2 story</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN83" t="inlineStr">
+        <is>
+          <t>Flat 3</t>
+        </is>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP83" t="inlineStr">
+        <is>
+          <t>Ifeanyi Okoli</t>
+        </is>
+      </c>
+      <c r="AQ83" t="inlineStr">
+        <is>
+          <t>08037775360</t>
+        </is>
+      </c>
+      <c r="AS83" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT83" t="inlineStr">
+        <is>
+          <t>15:46:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>7748</v>
+        <v>7263</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7264,7 +9782,7 @@
         </is>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J84">
         <v>5</v>
@@ -7281,20 +9799,12 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>ISAH JUBRIL STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O84">
-        <v>188</v>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
+        </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>LVASA/6/188/77</t>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
@@ -7304,7 +9814,7 @@
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -7316,12 +9826,42 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN84" t="inlineStr">
+        <is>
+          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP84" t="inlineStr">
+        <is>
+          <t>Mr Kunle Dosa</t>
+        </is>
+      </c>
+      <c r="AQ84" t="inlineStr">
+        <is>
+          <t>07083268507</t>
+        </is>
+      </c>
+      <c r="AS84" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT84" t="inlineStr">
+        <is>
+          <t>09:36:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>7905</v>
+        <v>7748</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7345,11 +9885,8 @@
       <c r="H85">
         <v>1</v>
       </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
       <c r="J85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -7358,52 +9895,82 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
         </is>
       </c>
       <c r="O85">
-        <v>1532</v>
+        <v>188</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
+          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>LVASA/8/1532/11</t>
+          <t>LVASA/6/188/77</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN85" t="inlineStr">
+        <is>
+          <t>A stand a stand alone bungalow in No 7.</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP85" t="inlineStr">
+        <is>
+          <t>Mr Amadu Musa</t>
+        </is>
+      </c>
+      <c r="AQ85" t="inlineStr">
+        <is>
+          <t>09046256217</t>
+        </is>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="AT85" t="inlineStr">
+        <is>
+          <t>06:39:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>7917</v>
+        <v>7905</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7453,12 +10020,12 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>LVASA/8/1532/22</t>
+          <t>LVASA/8/1532/11</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -7480,19 +10047,44 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP86" t="inlineStr">
+        <is>
+          <t>Mrs Wisdom Joy</t>
+        </is>
+      </c>
+      <c r="AQ86" t="inlineStr">
+        <is>
+          <t>08130089308</t>
+        </is>
+      </c>
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>8369</v>
+        <v>7917</v>
       </c>
       <c r="B87">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D87">
@@ -7507,61 +10099,307 @@
         </is>
       </c>
       <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O87">
+        <v>1532</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/22</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN87" t="inlineStr">
+        <is>
+          <t>Compound with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP87" t="inlineStr">
+        <is>
+          <t>Mrs Jenifer Christopher</t>
+        </is>
+      </c>
+      <c r="AQ87" t="inlineStr">
+        <is>
+          <t>09166096177</t>
+        </is>
+      </c>
+      <c r="AS87" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="AT87" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>8369</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H88">
         <v>9</v>
       </c>
-      <c r="I87">
-        <v>1</v>
-      </c>
-      <c r="J87">
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
         <v>4</v>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>Badagry</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>BOLAJI STREET, OKO-AFO</t>
         </is>
       </c>
-      <c r="O87">
+      <c r="O88">
         <v>180</v>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="R88" t="inlineStr">
         <is>
           <t>LVASA/6/180/40</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>tab4</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>NA
 NA</t>
         </is>
       </c>
-      <c r="V87" t="inlineStr">
+      <c r="V88" t="inlineStr">
         <is>
           <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN88" t="inlineStr">
+        <is>
+          <t>Main building, landlord Apartment. Mr Ilori</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP88" t="inlineStr">
+        <is>
+          <t>Mr Ilori</t>
+        </is>
+      </c>
+      <c r="AQ88" t="inlineStr">
+        <is>
+          <t>08098127138</t>
+        </is>
+      </c>
+      <c r="AS88" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT88" t="inlineStr">
+        <is>
+          <t>02:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>8580</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN89" t="inlineStr">
+        <is>
+          <t>Fenced bungalow building.</t>
+        </is>
+      </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>Mrs Willoby Edna</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>08036210268</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>11:33:00</t>
         </is>
       </c>
     </row>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT89"/>
+  <dimension ref="A1:AT102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9324,14 +9324,14 @@
     </row>
     <row r="80">
       <c r="A80">
-        <v>6789</v>
+        <v>6695</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D80">
@@ -9352,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="J80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -9361,33 +9361,33 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>AYEDUN BUSTOP, MOWO</t>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
         </is>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>2, Pobona College, Poka Epe</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -9397,7 +9397,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>Second room</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -9407,40 +9407,40 @@
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>Mr Ayeni Stephen</t>
+          <t>Mr Olalere Paul</t>
         </is>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
-          <t>08037717004</t>
+          <t>08060706488</t>
         </is>
       </c>
       <c r="AR80" t="inlineStr">
         <is>
-          <t>08037327997</t>
+          <t>08129110467</t>
         </is>
       </c>
       <c r="AS80" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday,Friday</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr">
         <is>
-          <t>05:52:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>6925</v>
+        <v>6789</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D81">
@@ -9461,7 +9461,7 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -9470,38 +9470,33 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>AYEDUN BUSTOP, MOWO</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>41 ishaga road itire surulere</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>41 ishaga road itire surulere</t>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -9511,45 +9506,50 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>Room 2</t>
+          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP81" t="inlineStr">
         <is>
-          <t>Odushina bimpe</t>
+          <t>Mr Ayeni Stephen</t>
         </is>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>08023821284</t>
+          <t>08037717004</t>
+        </is>
+      </c>
+      <c r="AR81" t="inlineStr">
+        <is>
+          <t>08037327997</t>
         </is>
       </c>
       <c r="AS81" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>05:52:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>6929</v>
+        <v>6789</v>
       </c>
       <c r="B82">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D82">
@@ -9570,7 +9570,7 @@
         <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -9579,38 +9579,33 @@
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>AYEDUN BUSTOP, MOWO</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>31 ishaga road itire surulere</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>31 ishaga road itire surulere</t>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -9620,45 +9615,50 @@
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>Room 7</t>
+          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP82" t="inlineStr">
         <is>
-          <t>Taofeek Jimoh</t>
+          <t>Mr Ayeni Stephen</t>
         </is>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>08162453535</t>
+          <t>08037717004</t>
+        </is>
+      </c>
+      <c r="AR82" t="inlineStr">
+        <is>
+          <t>08037327997</t>
         </is>
       </c>
       <c r="AS82" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>12:29:00</t>
+          <t>05:52:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>7170</v>
+        <v>6925</v>
       </c>
       <c r="B83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D83">
@@ -9693,17 +9693,17 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+          <t>ISHAGA, ITIRE</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>22 falohun street orile surulere</t>
+          <t>41 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>Grey 2 story</t>
+          <t>41 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>Flat 3</t>
+          <t>Room 2</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -9739,35 +9739,35 @@
       </c>
       <c r="AP83" t="inlineStr">
         <is>
-          <t>Ifeanyi Okoli</t>
+          <t>Odushina bimpe</t>
         </is>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
-          <t>08037775360</t>
+          <t>08023821284</t>
         </is>
       </c>
       <c r="AS83" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>7263</v>
+        <v>6925</v>
       </c>
       <c r="B84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D84">
@@ -9782,10 +9782,13 @@
         </is>
       </c>
       <c r="H84">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
       </c>
       <c r="J84">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -9794,33 +9797,38 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Surulere</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>SINGBOMEH COMPOUND, MOWO</t>
+          <t>ISHAGA, ITIRE</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>41 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>41 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -9830,7 +9838,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>Room 2</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -9840,35 +9848,35 @@
       </c>
       <c r="AP84" t="inlineStr">
         <is>
-          <t>Mr Kunle Dosa</t>
+          <t>Odushina bimpe</t>
         </is>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>07083268507</t>
+          <t>08023821284</t>
         </is>
       </c>
       <c r="AS84" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>09:36:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>7748</v>
+        <v>6929</v>
       </c>
       <c r="B85">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D85">
@@ -9885,8 +9893,11 @@
       <c r="H85">
         <v>1</v>
       </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
       <c r="J85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -9895,41 +9906,38 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Surulere</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ISAH JUBRIL STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O85">
-        <v>188</v>
+          <t>ISHAGA, ITIRE</t>
+        </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>LVASA/6/188/77</t>
+          <t>31 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>31 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -9939,7 +9947,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>A stand a stand alone bungalow in No 7.</t>
+          <t>Room 7</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -9949,35 +9957,35 @@
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>Mr Amadu Musa</t>
+          <t>Taofeek Jimoh</t>
         </is>
       </c>
       <c r="AQ85" t="inlineStr">
         <is>
-          <t>09046256217</t>
+          <t>08162453535</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>06:39:00</t>
+          <t>12:29:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>7905</v>
+        <v>6929</v>
       </c>
       <c r="B86">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D86">
@@ -10007,41 +10015,38 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Surulere</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
-        </is>
-      </c>
-      <c r="O86">
-        <v>1532</v>
+          <t>ISHAGA, ITIRE</t>
+        </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>LVASA/8/1532/11</t>
+          <t>31 ishaga road itire surulere</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>31 ishaga road itire surulere</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -10049,42 +10054,47 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>Room 7</t>
+        </is>
+      </c>
       <c r="AO86" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP86" t="inlineStr">
         <is>
-          <t>Mrs Wisdom Joy</t>
+          <t>Taofeek Jimoh</t>
         </is>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>08130089308</t>
+          <t>08162453535</t>
         </is>
       </c>
       <c r="AS86" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>12:29:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>7917</v>
+        <v>7170</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D87">
@@ -10114,30 +10124,27 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Surulere</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
-        </is>
-      </c>
-      <c r="O87">
-        <v>1532</v>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>LVASA/8/1532/22</t>
+          <t>22 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Grey 2 story</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -10147,8 +10154,8 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -10158,45 +10165,45 @@
       </c>
       <c r="AN87" t="inlineStr">
         <is>
-          <t>Compound with 2 graves in front</t>
+          <t>Flat 3</t>
         </is>
       </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>Mrs Jenifer Christopher</t>
+          <t>Ifeanyi Okoli</t>
         </is>
       </c>
       <c r="AQ87" t="inlineStr">
         <is>
-          <t>09166096177</t>
+          <t>08037775360</t>
         </is>
       </c>
       <c r="AS87" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:46:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>8369</v>
+        <v>7170</v>
       </c>
       <c r="B88">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D88">
@@ -10211,13 +10218,13 @@
         </is>
       </c>
       <c r="H88">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -10226,41 +10233,38 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Surulere</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>BOLAJI STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O88">
-        <v>180</v>
+          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+        </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>LVASA/6/180/40</t>
+          <t>22 falohun street orile surulere</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Grey 2 story</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>JOHNSON-BEZI ANTHONY
+Osemene Joshua Chukwunonso</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -10270,38 +10274,38 @@
       </c>
       <c r="AN88" t="inlineStr">
         <is>
-          <t>Main building, landlord Apartment. Mr Ilori</t>
+          <t>Flat 3</t>
         </is>
       </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP88" t="inlineStr">
         <is>
-          <t>Mr Ilori</t>
+          <t>Ifeanyi Okoli</t>
         </is>
       </c>
       <c r="AQ88" t="inlineStr">
         <is>
-          <t>08098127138</t>
+          <t>08037775360</t>
         </is>
       </c>
       <c r="AS88" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT88" t="inlineStr">
         <is>
-          <t>02:35:00</t>
+          <t>15:46:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>8580</v>
+        <v>7263</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -10323,13 +10327,10 @@
         </is>
       </c>
       <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -10343,12 +10344,12 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>BOLAJI STREET, OKO-AFO</t>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -10358,7 +10359,7 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -10374,30 +10375,1430 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
+          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="AO89" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP89" t="inlineStr">
+        <is>
+          <t>Mr Kunle Dosa</t>
+        </is>
+      </c>
+      <c r="AQ89" t="inlineStr">
+        <is>
+          <t>07083268507</t>
+        </is>
+      </c>
+      <c r="AS89" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT89" t="inlineStr">
+        <is>
+          <t>09:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>7263</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H90">
+        <v>9</v>
+      </c>
+      <c r="J90">
+        <v>5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN90" t="inlineStr">
+        <is>
+          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
+      <c r="AO90" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP90" t="inlineStr">
+        <is>
+          <t>Mr Kunle Dosa</t>
+        </is>
+      </c>
+      <c r="AQ90" t="inlineStr">
+        <is>
+          <t>07083268507</t>
+        </is>
+      </c>
+      <c r="AS90" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT90" t="inlineStr">
+        <is>
+          <t>09:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>7570</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Apapa</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>SARI STREET NO 19 -5, SARI-IGANMU</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>21 sari Street apapa lagos</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AO91" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP91" t="inlineStr">
+        <is>
+          <t>Sodiq Musibau</t>
+        </is>
+      </c>
+      <c r="AR91" t="inlineStr">
+        <is>
+          <t>08162331787</t>
+        </is>
+      </c>
+      <c r="AS91" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT91" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>7707</v>
+      </c>
+      <c r="B92">
+        <v>6</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>OLUSESI II, IKOTUN</t>
+        </is>
+      </c>
+      <c r="O92">
+        <v>5164</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>23 olusesi street off liasu Rd ikotun</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>LVASA/3/5164/13</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>2024-03-19</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN92" t="inlineStr">
+        <is>
+          <t>Room 6</t>
+        </is>
+      </c>
+      <c r="AO92" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP92" t="inlineStr">
+        <is>
+          <t>Edwin Naomi</t>
+        </is>
+      </c>
+      <c r="AQ92" t="inlineStr">
+        <is>
+          <t>08020310415</t>
+        </is>
+      </c>
+      <c r="AS92" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT92" t="inlineStr">
+        <is>
+          <t>14:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>7748</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O93">
+        <v>188</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>LVASA/6/188/77</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN93" t="inlineStr">
+        <is>
+          <t>A stand a stand alone bungalow in No 7.</t>
+        </is>
+      </c>
+      <c r="AO93" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP93" t="inlineStr">
+        <is>
+          <t>Mr Amadu Musa</t>
+        </is>
+      </c>
+      <c r="AQ93" t="inlineStr">
+        <is>
+          <t>09046256217</t>
+        </is>
+      </c>
+      <c r="AS93" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="AT93" t="inlineStr">
+        <is>
+          <t>06:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>7748</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O94">
+        <v>188</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>LVASA/6/188/77</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>2024-03-20</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN94" t="inlineStr">
+        <is>
+          <t>A stand a stand alone bungalow in No 7.</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP94" t="inlineStr">
+        <is>
+          <t>Mr Amadu Musa</t>
+        </is>
+      </c>
+      <c r="AQ94" t="inlineStr">
+        <is>
+          <t>09046256217</t>
+        </is>
+      </c>
+      <c r="AS94" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
+        <is>
+          <t>06:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>7905</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O95">
+        <v>1532</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/11</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP95" t="inlineStr">
+        <is>
+          <t>Mrs Wisdom Joy</t>
+        </is>
+      </c>
+      <c r="AQ95" t="inlineStr">
+        <is>
+          <t>08130089308</t>
+        </is>
+      </c>
+      <c r="AS95" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>7905</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O96">
+        <v>1532</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/11</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP96" t="inlineStr">
+        <is>
+          <t>Mrs Wisdom Joy</t>
+        </is>
+      </c>
+      <c r="AQ96" t="inlineStr">
+        <is>
+          <t>08130089308</t>
+        </is>
+      </c>
+      <c r="AS96" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT96" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>7917</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O97">
+        <v>1532</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/22</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN97" t="inlineStr">
+        <is>
+          <t>Compound with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP97" t="inlineStr">
+        <is>
+          <t>Mrs Jenifer Christopher</t>
+        </is>
+      </c>
+      <c r="AQ97" t="inlineStr">
+        <is>
+          <t>09166096177</t>
+        </is>
+      </c>
+      <c r="AS97" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="AT97" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>7917</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Eti-Osa</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O98">
+        <v>1532</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/22</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>tab21</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN98" t="inlineStr">
+        <is>
+          <t>Compound with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP98" t="inlineStr">
+        <is>
+          <t>Mrs Jenifer Christopher</t>
+        </is>
+      </c>
+      <c r="AQ98" t="inlineStr">
+        <is>
+          <t>09166096177</t>
+        </is>
+      </c>
+      <c r="AS98" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>8369</v>
+      </c>
+      <c r="B99">
+        <v>5</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H99">
+        <v>9</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O99">
+        <v>180</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/40</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN99" t="inlineStr">
+        <is>
+          <t>Main building, landlord Apartment. Mr Ilori</t>
+        </is>
+      </c>
+      <c r="AO99" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP99" t="inlineStr">
+        <is>
+          <t>Mr Ilori</t>
+        </is>
+      </c>
+      <c r="AQ99" t="inlineStr">
+        <is>
+          <t>08098127138</t>
+        </is>
+      </c>
+      <c r="AS99" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT99" t="inlineStr">
+        <is>
+          <t>02:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>8369</v>
+      </c>
+      <c r="B100">
+        <v>5</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H100">
+        <v>9</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O100">
+        <v>180</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/40</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>2024-03-21</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN100" t="inlineStr">
+        <is>
+          <t>Main building, landlord Apartment. Mr Ilori</t>
+        </is>
+      </c>
+      <c r="AO100" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP100" t="inlineStr">
+        <is>
+          <t>Mr Ilori</t>
+        </is>
+      </c>
+      <c r="AQ100" t="inlineStr">
+        <is>
+          <t>08098127138</t>
+        </is>
+      </c>
+      <c r="AS100" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT100" t="inlineStr">
+        <is>
+          <t>02:35:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>8580</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN101" t="inlineStr">
+        <is>
           <t>Fenced bungalow building.</t>
         </is>
       </c>
-      <c r="AO89" t="inlineStr">
+      <c r="AO101" t="inlineStr">
         <is>
           <t>Head of Household</t>
         </is>
       </c>
-      <c r="AP89" t="inlineStr">
+      <c r="AP101" t="inlineStr">
         <is>
           <t>Mrs Willoby Edna</t>
         </is>
       </c>
-      <c r="AQ89" t="inlineStr">
+      <c r="AQ101" t="inlineStr">
         <is>
           <t>08036210268</t>
         </is>
       </c>
-      <c r="AS89" t="inlineStr">
+      <c r="AS101" t="inlineStr">
         <is>
           <t>Thursday</t>
         </is>
       </c>
-      <c r="AT89" t="inlineStr">
+      <c r="AT101" t="inlineStr">
+        <is>
+          <t>11:33:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>8580</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Badagry</t>
+        </is>
+      </c>
+      <c r="N102" t="inlineStr">
+        <is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN102" t="inlineStr">
+        <is>
+          <t>Fenced bungalow building.</t>
+        </is>
+      </c>
+      <c r="AO102" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP102" t="inlineStr">
+        <is>
+          <t>Mrs Willoby Edna</t>
+        </is>
+      </c>
+      <c r="AQ102" t="inlineStr">
+        <is>
+          <t>08036210268</t>
+        </is>
+      </c>
+      <c r="AS102" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="AT102" t="inlineStr">
         <is>
           <t>11:33:00</t>
         </is>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT102"/>
+  <dimension ref="A1:AT119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11804,6 +11804,1795 @@
         </is>
       </c>
     </row>
+    <row r="103">
+      <c r="A103">
+        <v>9062</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="N103" t="inlineStr">
+        <is>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>16 fatade street ikotun ijegun</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN103" t="inlineStr">
+        <is>
+          <t>Room 6</t>
+        </is>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP103" t="inlineStr">
+        <is>
+          <t>Daniel Eze</t>
+        </is>
+      </c>
+      <c r="AS103" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT103" t="inlineStr">
+        <is>
+          <t>12:52:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>9072</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Alimosho</t>
+        </is>
+      </c>
+      <c r="N104" t="inlineStr">
+        <is>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>12 Anani street ikotun ijegun road</t>
+        </is>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Room 1</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>tab8</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN104" t="inlineStr">
+        <is>
+          <t>Room 1</t>
+        </is>
+      </c>
+      <c r="AO104" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP104" t="inlineStr">
+        <is>
+          <t>Aishat isah</t>
+        </is>
+      </c>
+      <c r="AQ104" t="inlineStr">
+        <is>
+          <t>08124889891</t>
+        </is>
+      </c>
+      <c r="AS104" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT104" t="inlineStr">
+        <is>
+          <t>14:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>9108</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>16 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AO105" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP105" t="inlineStr">
+        <is>
+          <t>Alore Tanes</t>
+        </is>
+      </c>
+      <c r="AR105" t="inlineStr">
+        <is>
+          <t>09058981549</t>
+        </is>
+      </c>
+      <c r="AS105" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT105" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>9108</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Lagos Mainland</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>AIYETORO STREET, MAKOKO</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>16 Aiyetoro Street Makoko lagos</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>tab6</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AO106" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP106" t="inlineStr">
+        <is>
+          <t>Alore Tanes</t>
+        </is>
+      </c>
+      <c r="AR106" t="inlineStr">
+        <is>
+          <t>09058981549</t>
+        </is>
+      </c>
+      <c r="AS106" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT106" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>9703</v>
+      </c>
+      <c r="B107">
+        <v>7</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Ajeromi</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>28, RABIU ADIO, TOLU</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>tab20</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN107" t="inlineStr">
+        <is>
+          <t>ROOM 7, HOUSE NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
+        </is>
+      </c>
+      <c r="AO107" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP107" t="inlineStr">
+        <is>
+          <t>MR OLUFA GANIU</t>
+        </is>
+      </c>
+      <c r="AQ107" t="inlineStr">
+        <is>
+          <t>08052064955</t>
+        </is>
+      </c>
+      <c r="AS107" t="inlineStr">
+        <is>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT107" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>9747</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="O108">
+        <v>904</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN108" t="inlineStr">
+        <is>
+          <t>Navy compound</t>
+        </is>
+      </c>
+      <c r="AO108" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP108" t="inlineStr">
+        <is>
+          <t>Mrs Tosin Taju</t>
+        </is>
+      </c>
+      <c r="AQ108" t="inlineStr">
+        <is>
+          <t>09017780434</t>
+        </is>
+      </c>
+      <c r="AS108" t="inlineStr">
+        <is>
+          <t>Wednesday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT108" t="inlineStr">
+        <is>
+          <t>11:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>9747</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="O109">
+        <v>904</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN109" t="inlineStr">
+        <is>
+          <t>Navy compound</t>
+        </is>
+      </c>
+      <c r="AO109" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP109" t="inlineStr">
+        <is>
+          <t>Mrs Tosin Taju</t>
+        </is>
+      </c>
+      <c r="AQ109" t="inlineStr">
+        <is>
+          <t>09017780434</t>
+        </is>
+      </c>
+      <c r="AS109" t="inlineStr">
+        <is>
+          <t>Wednesday,Saturday,Sunday</t>
+        </is>
+      </c>
+      <c r="AT109" t="inlineStr">
+        <is>
+          <t>11:16:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>9748</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="O110">
+        <v>904</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>3 Adugbo oya</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/17</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN110" t="inlineStr">
+        <is>
+          <t>Within the compound</t>
+        </is>
+      </c>
+      <c r="AO110" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP110" t="inlineStr">
+        <is>
+          <t>Iya Fathia</t>
+        </is>
+      </c>
+      <c r="AQ110" t="inlineStr">
+        <is>
+          <t>09126258233</t>
+        </is>
+      </c>
+      <c r="AS110" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT110" t="inlineStr">
+        <is>
+          <t>03:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>9748</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="O111">
+        <v>904</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>3 Adugbo oya</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/17</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>tab15</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>2024-03-25</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN111" t="inlineStr">
+        <is>
+          <t>Within the compound</t>
+        </is>
+      </c>
+      <c r="AO111" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP111" t="inlineStr">
+        <is>
+          <t>Iya Fathia</t>
+        </is>
+      </c>
+      <c r="AQ111" t="inlineStr">
+        <is>
+          <t>09126258233</t>
+        </is>
+      </c>
+      <c r="AS111" t="inlineStr">
+        <is>
+          <t>Friday,Saturday</t>
+        </is>
+      </c>
+      <c r="AT111" t="inlineStr">
+        <is>
+          <t>03:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>9758</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>No 1, Sheibu Str. Masa Masa</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN112" t="inlineStr">
+        <is>
+          <t>4th rm on the left within the main building</t>
+        </is>
+      </c>
+      <c r="AO112" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP112" t="inlineStr">
+        <is>
+          <t>Mrs Abidemi Akabogu</t>
+        </is>
+      </c>
+      <c r="AQ112" t="inlineStr">
+        <is>
+          <t>07066029679</t>
+        </is>
+      </c>
+      <c r="AS112" t="inlineStr">
+        <is>
+          <t>Sunday</t>
+        </is>
+      </c>
+      <c r="AT112" t="inlineStr">
+        <is>
+          <t>12:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>9760</v>
+      </c>
+      <c r="B113">
+        <v>11</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>11, Moshalashi street Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN113" t="inlineStr">
+        <is>
+          <t>The 8th room on the right within the bungalow building</t>
+        </is>
+      </c>
+      <c r="AO113" t="inlineStr">
+        <is>
+          <t>Other (Specify)</t>
+        </is>
+      </c>
+      <c r="AP113" t="inlineStr">
+        <is>
+          <t>Baba Divine</t>
+        </is>
+      </c>
+      <c r="AR113" t="inlineStr">
+        <is>
+          <t>08088215719</t>
+        </is>
+      </c>
+      <c r="AS113" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="AT113" t="inlineStr">
+        <is>
+          <t>12:31:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>9769</v>
+      </c>
+      <c r="B114">
+        <v>7</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>No19, Moshalashi str Masa Masa Amuwo Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>2024-03-23</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN114" t="inlineStr">
+        <is>
+          <t>1st building on the 4th</t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP114" t="inlineStr">
+        <is>
+          <t>Mr Sotemesi Ajasa</t>
+        </is>
+      </c>
+      <c r="AQ114" t="inlineStr">
+        <is>
+          <t>08033952012</t>
+        </is>
+      </c>
+      <c r="AS114" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
+          <t>11:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>9777</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>21, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN115" t="inlineStr">
+        <is>
+          <t>The first room by the left within the bungalow building</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP115" t="inlineStr">
+        <is>
+          <t>Mr Sheu Raheem</t>
+        </is>
+      </c>
+      <c r="AR115" t="inlineStr">
+        <is>
+          <t>08084941265</t>
+        </is>
+      </c>
+      <c r="AS115" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT115" t="inlineStr">
+        <is>
+          <t>13:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>9779</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>25, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
+        </is>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN116" t="inlineStr">
+        <is>
+          <t>The second room by the right within the bungalow building</t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>Spouse/Partner</t>
+        </is>
+      </c>
+      <c r="AP116" t="inlineStr">
+        <is>
+          <t>Mr Anaba Muyiwa</t>
+        </is>
+      </c>
+      <c r="AQ116" t="inlineStr">
+        <is>
+          <t>08029972064</t>
+        </is>
+      </c>
+      <c r="AS116" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="AT116" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>9791</v>
+      </c>
+      <c r="B117">
+        <v>7</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>4</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
+        <is>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>No 26, Olayemi str Masa Masa, Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN117" t="inlineStr">
+        <is>
+          <t>Room within the building.</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP117" t="inlineStr">
+        <is>
+          <t>Mr Edna Sunday</t>
+        </is>
+      </c>
+      <c r="AQ117" t="inlineStr">
+        <is>
+          <t>08110210412</t>
+        </is>
+      </c>
+      <c r="AS117" t="inlineStr">
+        <is>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="AT117" t="inlineStr">
+        <is>
+          <t>05:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>9796</v>
+      </c>
+      <c r="B118">
+        <v>4</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>SAIBU /BADUM / YUSUF, MASAMASA</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>4, Shaibu Close, Villa Park</t>
+        </is>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>2024-03-24</t>
+        </is>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN118" t="inlineStr">
+        <is>
+          <t>The 4th room within the BQ in the compound</t>
+        </is>
+      </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>Adult Child</t>
+        </is>
+      </c>
+      <c r="AP118" t="inlineStr">
+        <is>
+          <t>Mr Kolawole Isa</t>
+        </is>
+      </c>
+      <c r="AR118" t="inlineStr">
+        <is>
+          <t>09156506365</t>
+        </is>
+      </c>
+      <c r="AS118" t="inlineStr">
+        <is>
+          <t>Saturday</t>
+        </is>
+      </c>
+      <c r="AT118" t="inlineStr">
+        <is>
+          <t>13:06:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>10154</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H119">
+        <v>9</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Amuwo odofin</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr">
+        <is>
+          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>No 71, Olasuoye Str, Ijegun Amuwo Odofin Lagos.</t>
+        </is>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>tab4</t>
+        </is>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>2024-03-27</t>
+        </is>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>NA
+NA</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="AN119" t="inlineStr">
+        <is>
+          <t>A boungalow building.</t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>Head of Household</t>
+        </is>
+      </c>
+      <c r="AP119" t="inlineStr">
+        <is>
+          <t>Mrs Ogundiran Queen</t>
+        </is>
+      </c>
+      <c r="AQ119" t="inlineStr">
+        <is>
+          <t>08023571385</t>
+        </is>
+      </c>
+      <c r="AS119" t="inlineStr">
+        <is>
+          <t>Monday</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
+        <is>
+          <t>09:27:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Maternal_death_tracking.xlsx
+++ b/Maternal_death_tracking.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AT119"/>
+  <dimension ref="A1:AT100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3853,14 +3853,14 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D31">
@@ -3878,10 +3878,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3903,12 +3900,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>6 Odofin street ibasa</t>
+          <t>10 Odofin street ibasa</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>LVASA/4/1992/14</t>
+          <t>LVASA/4/1992/15</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3932,11 +3929,6 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>Second room</t>
-        </is>
-      </c>
       <c r="AO31" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -3944,28 +3936,28 @@
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>Mr Adewale</t>
+          <t>Mr Stanley</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>08125044230</t>
+          <t>09019225385</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>Tuesday,Wednesday,Thursday,Friday</t>
+          <t>Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
         <is>
-          <t>09:13:00</t>
+          <t>09:31:00</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1798</v>
+        <v>1851</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3976,7 +3968,7 @@
         </is>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3990,7 +3982,10 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3999,30 +3994,30 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Ikeja</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>IBASA / IBESE ROAD, IBESHE</t>
+          <t>ONILEKERE / GANIYU AGURA, ONILEKERE</t>
         </is>
       </c>
       <c r="O32">
-        <v>1992</v>
+        <v>1034</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>10 Odofin street ibasa</t>
+          <t>6 Onilekere street</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>LVASA/4/1992/15</t>
+          <t>LVASA/11/1034/1</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab17</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -4032,8 +4027,8 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>AROWOJOBE MOJEED O
+HAKEEM BOLANLE RASHEEDAT</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -4041,6 +4036,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>1st room right down</t>
+        </is>
+      </c>
       <c r="AO32" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -4048,28 +4048,28 @@
       </c>
       <c r="AP32" t="inlineStr">
         <is>
-          <t>Mr Stanley</t>
+          <t>Esther Aga</t>
         </is>
       </c>
       <c r="AQ32" t="inlineStr">
         <is>
-          <t>09019225385</t>
+          <t>08063960014</t>
         </is>
       </c>
       <c r="AS32" t="inlineStr">
         <is>
-          <t>Wednesday,Thursday,Friday,Saturday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr">
         <is>
-          <t>09:31:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1804</v>
+        <v>1892</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         </is>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -4097,7 +4097,7 @@
         <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -4106,30 +4106,35 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Alimosho</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>IBASA / IBESE ROAD, IBESHE</t>
+          <t>OBASANJO ITAOLA, IKOTUN</t>
         </is>
       </c>
       <c r="O33">
-        <v>1992</v>
+        <v>6978</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>3 Esa compound</t>
+          <t>6 OBASANJO ITAYOLA STREET</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>6 OBASANJO ITAYOLA STREET, A bungalow</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>LVASA/4/1992/21</t>
+          <t>LVASA/3/6978/12</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab3</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -4139,8 +4144,8 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -4150,38 +4155,43 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>Second room on the right</t>
+          <t>6 OBASANJO ITAYOLA STREET</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
         <is>
-          <t>Amda Adedeji</t>
+          <t>ME AKINLEYE</t>
         </is>
       </c>
       <c r="AQ33" t="inlineStr">
         <is>
-          <t>07072329224</t>
+          <t>09068834634</t>
+        </is>
+      </c>
+      <c r="AR33" t="inlineStr">
+        <is>
+          <t>09068834634</t>
         </is>
       </c>
       <c r="AS33" t="inlineStr">
         <is>
-          <t>Wednesday,Friday</t>
+          <t>Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr">
         <is>
-          <t>09:58:00</t>
+          <t>14:28:00</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1810</v>
+        <v>1964</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4218,30 +4228,30 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Mushin</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>IBASA / IBESE ROAD, IBESHE</t>
+          <t>OLANIBI / BELLO, PAPA-AJAO</t>
         </is>
       </c>
       <c r="O34">
-        <v>1992</v>
+        <v>72</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>1 ibore compound ibasa</t>
+          <t>12 Awanatu street off Bello Mushin</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>LVASA/4/1992/26</t>
+          <t>LVASA/16/72/17</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab12</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -4251,8 +4261,8 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -4260,6 +4270,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>First room by your left</t>
+        </is>
+      </c>
       <c r="AO34" t="inlineStr">
         <is>
           <t>Head of Household</t>
@@ -4267,35 +4282,35 @@
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>Mrs Kafilat kushein</t>
+          <t>Alhaja Olajide</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>09033759886</t>
+          <t>07061975137</t>
         </is>
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
         <is>
-          <t>11:05:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1811</v>
+        <v>2007</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D35">
@@ -4325,30 +4340,30 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Apapa</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>IBASA / IBESE ROAD, IBESHE</t>
+          <t>GASKIYA 1, BADIA</t>
         </is>
       </c>
       <c r="O35">
-        <v>1992</v>
+        <v>532</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2 compound ibasa</t>
+          <t>126, Gaskiya college road off Ali dogo street</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>LVASA/4/1992/28</t>
+          <t>LVASA/5/532/9</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab19</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -4358,8 +4373,8 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -4369,49 +4384,49 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>Second room on right</t>
+          <t>3rd room on the left in the building</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>Mr Rahmon Alimi</t>
+          <t>Ruth Isaac</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>07019282129</t>
+          <t>08062080928</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>Tuesday,Wednesday,Friday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
         <is>
-          <t>11:17:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1851</v>
+        <v>2275</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -4428,50 +4443,53 @@
         <v>1</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L36">
+        <v>1</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Ikeja</t>
+          <t>Ibeju-Lekki</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>ONILEKERE / GANIYU AGURA, ONILEKERE</t>
+          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
         </is>
       </c>
       <c r="O36">
-        <v>1034</v>
+        <v>854</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>6 Onilekere street</t>
+          <t>26b, Olorunsogo street</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>LVASA/11/1034/1</t>
+          <t>LVASA/9/854/35</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>tab17</t>
+          <t>tab2</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>AROWOJOBE MOJEED O
-HAKEEM BOLANLE RASHEEDAT</t>
+          <t>MAKANJUOLA MOSHOOD
+ODEYALE OLUWASEGUN DANIEL</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -4481,38 +4499,38 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>1st room right down</t>
+          <t>First room by the left</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>Esther Aga</t>
+          <t>Mariam Aina</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>08063960014</t>
+          <t>07058843570</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1892</v>
+        <v>2419</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -4523,7 +4541,7 @@
         </is>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4540,7 +4558,7 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -4549,46 +4567,41 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Alimosho</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>OBASANJO ITAOLA, IKOTUN</t>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
         </is>
       </c>
       <c r="O37">
-        <v>6978</v>
+        <v>774</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>6 OBASANJO ITAYOLA STREET</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>6 OBASANJO ITAYOLA STREET, A bungalow</t>
+          <t>Zone C 1, Olanipekun estate Aradagun Badagry.</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>LVASA/3/6978/12</t>
+          <t>LVASA/6/774/98</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>tab3</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>MICHAEL GLORIA
-JOSIAH OGUNJOBI</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -4598,43 +4611,38 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>6 OBASANJO ITAYOLA STREET</t>
+          <t>Zone C bungalow Olaonipekun estate Aradagun Badagry.</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Adult Child</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>ME AKINLEYE</t>
-        </is>
-      </c>
-      <c r="AQ37" t="inlineStr">
-        <is>
-          <t>09068834634</t>
+          <t>Mr Alalade  Stephen</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
         <is>
-          <t>09068834634</t>
+          <t>08036338600</t>
         </is>
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>Friday,Saturday,Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
         <is>
-          <t>14:28:00</t>
+          <t>04:28:00</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1964</v>
+        <v>2427</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4659,10 +4667,10 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -4671,41 +4679,46 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Mushin</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>OLANIBI / BELLO, PAPA-AJAO</t>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
         </is>
       </c>
       <c r="O38">
-        <v>72</v>
+        <v>774</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>12 Awanatu street off Bello Mushin</t>
+          <t>14 Olanipekun estate Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Four bedroom bungalow.</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>LVASA/16/72/17</t>
+          <t>LVASA/6/774/117</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>tab12</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>ADEMOLA AKANDE
-RACHAEL OGHENEWAIRE</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -4715,45 +4728,50 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>First room by your left</t>
+          <t>Four bedroom bungalow at Olanipekun estate Aradagun Badagry.</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>Alhaja Olajide</t>
+          <t>Mr Adeoye james</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>07061975137</t>
+          <t>08033344815</t>
+        </is>
+      </c>
+      <c r="AR38" t="inlineStr">
+        <is>
+          <t>07068313342</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>09:23:00</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>2007</v>
+        <v>2448</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D39">
@@ -4783,30 +4801,30 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Apapa</t>
+          <t>Lagos Mainland</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>GASKIYA 1, BADIA</t>
+          <t>OLAIYA/RAMATU, MAKOKO</t>
         </is>
       </c>
       <c r="O39">
-        <v>532</v>
+        <v>780</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>126, Gaskiya college road off Ali dogo street</t>
+          <t>16, Ramotu Street Makoko road Lagos</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>LVASA/5/532/9</t>
+          <t>LVASA/15/780/4</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>tab19</t>
+          <t>tab6</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4816,8 +4834,8 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>OKUNOLA OLUWATOYIN
-OMOBAMIDELE SESI</t>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -4825,47 +4843,47 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN39" t="inlineStr">
-        <is>
-          <t>3rd room on the left in the building</t>
-        </is>
-      </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>Ruth Isaac</t>
+          <t>Kehinde Adetayo</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>08062080928</t>
+          <t>08021361035</t>
+        </is>
+      </c>
+      <c r="AR39" t="inlineStr">
+        <is>
+          <t>07012021975</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>2275</v>
+        <v>2464</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D40">
@@ -4890,49 +4908,46 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L40">
-        <v>1</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Ibeju-Lekki</t>
+          <t>Lagos Mainland</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>OLORUNSOGO/ELEKO/BALOGUN, ELEKO</t>
+          <t>OLAIYA/RAMATU, MAKOKO</t>
         </is>
       </c>
       <c r="O40">
-        <v>854</v>
+        <v>780</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>26b, Olorunsogo street</t>
+          <t>1 Erejuwa Makoko road makoko Lagos</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>LVASA/9/854/35</t>
+          <t>LVASA/15/780/20</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>tab2</t>
+          <t>tab6</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>MAKANJUOLA MOSHOOD
-ODEYALE OLUWASEGUN DANIEL</t>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -4940,47 +4955,42 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>First room by the left</t>
-        </is>
-      </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
         <is>
-          <t>Mariam Aina</t>
+          <t>Mr Olamilekan Aina</t>
         </is>
       </c>
       <c r="AQ40" t="inlineStr">
         <is>
-          <t>07058843570</t>
+          <t>08025295480</t>
         </is>
       </c>
       <c r="AS40" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT40" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>2364</v>
+        <v>2665</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D41">
@@ -5001,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -5010,35 +5020,35 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Ajeromi</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+          <t>LIGALI / OJO ROAD, LAYENI</t>
         </is>
       </c>
       <c r="O41">
-        <v>1406</v>
+        <v>1252</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>4 celestial crescent ijegun Egba zone 2</t>
+          <t>No 31, ligali</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>LVASA/4/1406/8</t>
+          <t>LVASA/2/1252/16</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab13</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -5054,40 +5064,40 @@
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
         <is>
-          <t>Engineer Daniel Ebo</t>
+          <t>Laide olamide</t>
         </is>
       </c>
       <c r="AQ41" t="inlineStr">
         <is>
-          <t>08145484043</t>
+          <t>08162717636</t>
         </is>
       </c>
       <c r="AS41" t="inlineStr">
         <is>
-          <t>Friday,Saturday</t>
+          <t>Tuesday,Wednesday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr">
         <is>
-          <t>11:08:00</t>
+          <t>12:22:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>2386</v>
+        <v>2666</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D42">
@@ -5107,6 +5117,9 @@
       <c r="I42">
         <v>1</v>
       </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>No</t>
@@ -5114,40 +5127,35 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Ajeromi</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>IJEGUN EGBA ZONE 2, IJEGUN</t>
+          <t>LIGALI / OJO ROAD, LAYENI</t>
         </is>
       </c>
       <c r="O42">
-        <v>1406</v>
+        <v>1252</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>8 unity close ijegun Egba zone 2</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Beside block manufacturing site</t>
+          <t>No 33,ligali</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>LVASA/4/1406/32</t>
+          <t>LVASA/2/1252/17</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab13</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="U42" t="inlineStr">
@@ -5163,40 +5171,40 @@
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
         <is>
-          <t>Philip Ligon</t>
+          <t>Mrs joy</t>
         </is>
       </c>
       <c r="AQ42" t="inlineStr">
         <is>
-          <t>07046515550</t>
+          <t>09061415450</t>
         </is>
       </c>
       <c r="AS42" t="inlineStr">
         <is>
-          <t>Friday,Saturday</t>
+          <t>Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr">
         <is>
-          <t>13:31:00</t>
+          <t>09:03:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>2419</v>
+        <v>2686</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D43">
@@ -5217,7 +5225,7 @@
         <v>1</v>
       </c>
       <c r="J43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -5239,12 +5247,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Zone C 1, Olanipekun estate Aradagun Badagry.</t>
+          <t>25, Ogbe Itoga road community Aradagun Badagry.</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>LVASA/6/774/98</t>
+          <t>LVASA/6/774/134</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -5254,7 +5262,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -5270,7 +5278,7 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>Zone C bungalow Olaonipekun estate Aradagun Badagry.</t>
+          <t>25 Itoga road Ogbe community Aradagun Badagry.</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
@@ -5280,12 +5288,17 @@
       </c>
       <c r="AP43" t="inlineStr">
         <is>
-          <t>Mr Alalade  Stephen</t>
+          <t>Mr Isah umar</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>08082253970</t>
         </is>
       </c>
       <c r="AR43" t="inlineStr">
         <is>
-          <t>08036338600</t>
+          <t>08082253970</t>
         </is>
       </c>
       <c r="AS43" t="inlineStr">
@@ -5295,13 +5308,13 @@
       </c>
       <c r="AT43" t="inlineStr">
         <is>
-          <t>04:28:00</t>
+          <t>06:37:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>2427</v>
+        <v>2689</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5351,17 +5364,12 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>14 Olanipekun estate Aradagun Badagry.</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Four bedroom bungalow.</t>
+          <t>No 25 Alex Fieboh Str Itoga road Ogbe community Aradagun Badagry.</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>LVASA/6/774/117</t>
+          <t>LVASA/6/774/142</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
@@ -5371,7 +5379,7 @@
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
@@ -5387,43 +5395,43 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>Four bedroom bungalow at Olanipekun estate Aradagun Badagry.</t>
+          <t>24 Alex Fieboh Str Itoga road Ogbe Aradagun Badagry.</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Adult Child</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
         <is>
-          <t>Mr Adeoye james</t>
+          <t>Mrs Kowor Blessing</t>
         </is>
       </c>
       <c r="AQ44" t="inlineStr">
         <is>
-          <t>08033344815</t>
+          <t>09122724862</t>
         </is>
       </c>
       <c r="AR44" t="inlineStr">
         <is>
-          <t>07068313342</t>
+          <t>09122274862</t>
         </is>
       </c>
       <c r="AS44" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT44" t="inlineStr">
         <is>
-          <t>09:23:00</t>
+          <t>06:36:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2448</v>
+        <v>2697</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5451,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -5460,41 +5468,46 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Lagos Mainland</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>OLAIYA/RAMATU, MAKOKO</t>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
         </is>
       </c>
       <c r="O45">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>16, Ramotu Street Makoko road Lagos</t>
+          <t>No 25,Oremeta road, Ogbe community Aradagun Badagry.</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>First boys Quarter at  25, Oremeta junction Aradagun Badagry.</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>LVASA/15/780/4</t>
+          <t>LVASA/6/774/162</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>tab6</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>ODIAGBE JOHN
-BANKE OLOWU</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -5502,47 +5515,47 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>Uncompleted boys Quarter at oremeta junction Aradagun Badagry.</t>
+        </is>
+      </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
         <is>
-          <t>Kehinde Adetayo</t>
+          <t>Mr Ismila  Ibrahim</t>
         </is>
       </c>
       <c r="AQ45" t="inlineStr">
         <is>
-          <t>08021361035</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>07012021975</t>
+          <t>07065520016</t>
         </is>
       </c>
       <c r="AS45" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="AT45" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>07:29:00</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>2464</v>
+        <v>2739</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D46">
@@ -5572,41 +5585,41 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Lagos Mainland</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>OLAIYA/RAMATU, MAKOKO</t>
+          <t>IGA OBA ALARA, MOJODA</t>
         </is>
       </c>
       <c r="O46">
-        <v>780</v>
+        <v>94</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>1 Erejuwa Makoko road makoko Lagos</t>
+          <t>7, Ajegunle Street Ilara</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>LVASA/15/780/20</t>
+          <t>LVASA/7/94/24</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>tab6</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-03-10</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>ODIAGBE JOHN
-BANKE OLOWU</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -5614,42 +5627,52 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>Upstairs (second room by the left)</t>
+        </is>
+      </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Other (Specify)</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
         <is>
-          <t>Mr Olamilekan Aina</t>
+          <t>Iya Ejiro</t>
         </is>
       </c>
       <c r="AQ46" t="inlineStr">
         <is>
-          <t>08025295480</t>
+          <t>07033268458</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>07033268458</t>
         </is>
       </c>
       <c r="AS46" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Monday,Tuesday,Thursday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT46" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:14:00</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>2665</v>
+        <v>2748</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D47">
@@ -5679,30 +5702,30 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Ajeromi</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>LIGALI / OJO ROAD, LAYENI</t>
+          <t>IGA OBA ALARA, MOJODA</t>
         </is>
       </c>
       <c r="O47">
-        <v>1252</v>
+        <v>94</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>No 31, ligali</t>
+          <t>Odi Street, Ilara</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>LVASA/2/1252/16</t>
+          <t>LVASA/7/94/29</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>tab13</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -5712,8 +5735,8 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -5721,42 +5744,52 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>The first apartment in the building</t>
+        </is>
+      </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Adult Child</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
         <is>
-          <t>Laide olamide</t>
+          <t>High Chief Juwo of Ilara Kingdom (Alhaji Adamo Afuye)</t>
         </is>
       </c>
       <c r="AQ47" t="inlineStr">
         <is>
-          <t>08162717636</t>
+          <t>07039687507</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>07039687507</t>
         </is>
       </c>
       <c r="AS47" t="inlineStr">
         <is>
-          <t>Tuesday,Wednesday,Friday,Saturday,Sunday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT47" t="inlineStr">
         <is>
-          <t>12:22:00</t>
+          <t>16:41:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>2666</v>
+        <v>3001</v>
       </c>
       <c r="B48">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48">
@@ -5786,41 +5819,41 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Ajeromi</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>LIGALI / OJO ROAD, LAYENI</t>
+          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
         </is>
       </c>
       <c r="O48">
-        <v>1252</v>
+        <v>1732</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>No 33,ligali</t>
+          <t>6, MAURICE ABIMBOLA STREET BY EVEN ESTATE ADDO BADORE.</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>LVASA/2/1252/17</t>
+          <t>LVASA/8/1732/80</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>tab13</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -5828,6 +5861,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>First room from the entrance second building in the compound</t>
+        </is>
+      </c>
       <c r="AO48" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -5835,39 +5873,39 @@
       </c>
       <c r="AP48" t="inlineStr">
         <is>
-          <t>Mrs joy</t>
+          <t>Omolara Oguntayo</t>
         </is>
       </c>
       <c r="AQ48" t="inlineStr">
         <is>
-          <t>09061415450</t>
+          <t>8134238422</t>
         </is>
       </c>
       <c r="AS48" t="inlineStr">
         <is>
-          <t>Thursday,Friday,Saturday,Sunday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="AT48" t="inlineStr">
         <is>
-          <t>09:03:00</t>
+          <t>14:16:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>2686</v>
+        <v>3123</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -5884,50 +5922,53 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L49">
+        <v>1</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
         </is>
       </c>
       <c r="O49">
-        <v>774</v>
+        <v>1900</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>25, Ogbe Itoga road community Aradagun Badagry.</t>
+          <t>Dr Dauda Beyioku str Opposite yemmat close</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>LVASA/6/774/134</t>
+          <t>LVASA/8/1900/24</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -5937,43 +5978,43 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>25 Itoga road Ogbe community Aradagun Badagry.</t>
+          <t>Building 24 is built facing the road. It's entrance leads to building 25. It has flowers by the entrance of the 2nd gate</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>Adult Child</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
         <is>
-          <t>Mr Isah umar</t>
+          <t>Mr Safari Awere</t>
         </is>
       </c>
       <c r="AQ49" t="inlineStr">
         <is>
-          <t>08082253970</t>
+          <t>8033053819</t>
         </is>
       </c>
       <c r="AR49" t="inlineStr">
         <is>
-          <t>08082253970</t>
+          <t>9029642991</t>
         </is>
       </c>
       <c r="AS49" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT49" t="inlineStr">
         <is>
-          <t>06:37:00</t>
+          <t>18:40:00</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>2689</v>
+        <v>3297</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6001,50 +6042,53 @@
         <v>1</v>
       </c>
       <c r="J50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="L50">
+        <v>2</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+          <t>84, ISALE EBUTE STREET, ADDO</t>
         </is>
       </c>
       <c r="O50">
-        <v>774</v>
+        <v>1900</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>No 25 Alex Fieboh Str Itoga road Ogbe community Aradagun Badagry.</t>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>LVASA/6/774/142</t>
+          <t>LVASA/8/1900/40</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>05/03/2024</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -6054,43 +6098,38 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>24 Alex Fieboh Str Itoga road Ogbe Aradagun Badagry.</t>
+          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>Adult Child</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
         <is>
-          <t>Mrs Kowor Blessing</t>
+          <t>Mr Emmanuel Nweke</t>
         </is>
       </c>
       <c r="AQ50" t="inlineStr">
         <is>
-          <t>09122724862</t>
-        </is>
-      </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>09122274862</t>
+          <t>9034159246</t>
         </is>
       </c>
       <c r="AS50" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT50" t="inlineStr">
         <is>
-          <t>06:36:00</t>
+          <t>16:57:00</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>2697</v>
+        <v>3537</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6118,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="J51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -6132,25 +6171,20 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+          <t>AJARA FARM SETTLEMENT, AJARA TOPA</t>
         </is>
       </c>
       <c r="O51">
-        <v>774</v>
+        <v>1122</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>No 25,Oremeta road, Ogbe community Aradagun Badagry.</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>First boys Quarter at  25, Oremeta junction Aradagun Badagry.</t>
+          <t>Plot 14, new creature str off Agric Road Ajara Topa Badagry.</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>LVASA/6/774/162</t>
+          <t>LVASA/6/1122/42</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -6160,7 +6194,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -6176,7 +6210,7 @@
       </c>
       <c r="AN51" t="inlineStr">
         <is>
-          <t>Uncompleted boys Quarter at oremeta junction Aradagun Badagry.</t>
+          <t>Plot 14, The bungalow on the left hand side within along the road.</t>
         </is>
       </c>
       <c r="AO51" t="inlineStr">
@@ -6186,35 +6220,35 @@
       </c>
       <c r="AP51" t="inlineStr">
         <is>
-          <t>Mr Ismila  Ibrahim</t>
+          <t>Mr John Adeopa</t>
         </is>
       </c>
       <c r="AQ51" t="inlineStr">
         <is>
-          <t>07065520016</t>
+          <t>08081430626</t>
         </is>
       </c>
       <c r="AS51" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT51" t="inlineStr">
         <is>
-          <t>07:29:00</t>
+          <t>05:21:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>2739</v>
+        <v>3611</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D52">
@@ -6232,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -6244,41 +6278,41 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>IGA OBA ALARA, MOJODA</t>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
         </is>
       </c>
       <c r="O52">
-        <v>94</v>
+        <v>1688</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>7, Ajegunle Street Ilara</t>
+          <t>20 Moshalashi street Maza maza maza</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>LVASA/7/94/24</t>
+          <t>LVASA/4/1688/11</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab15</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -6288,43 +6322,43 @@
       </c>
       <c r="AN52" t="inlineStr">
         <is>
-          <t>Upstairs (second room by the left)</t>
+          <t>Second room on the left</t>
         </is>
       </c>
       <c r="AO52" t="inlineStr">
         <is>
-          <t>Other (Specify)</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP52" t="inlineStr">
         <is>
-          <t>Iya Ejiro</t>
+          <t>M Adam Abdulwahab</t>
         </is>
       </c>
       <c r="AQ52" t="inlineStr">
         <is>
-          <t>07033268458</t>
+          <t>09084458389</t>
         </is>
       </c>
       <c r="AR52" t="inlineStr">
         <is>
-          <t>07033268458</t>
+          <t>08164120495</t>
         </is>
       </c>
       <c r="AS52" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Thursday,Saturday,Sunday</t>
+          <t>Wednesday,Thursday,Saturday</t>
         </is>
       </c>
       <c r="AT52" t="inlineStr">
         <is>
-          <t>14:14:00</t>
+          <t>13:53:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>2748</v>
+        <v>3678</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6361,41 +6395,41 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Mushin</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>IGA OBA ALARA, MOJODA</t>
+          <t>RABIATU IDOWU, ILASA-MAJA</t>
         </is>
       </c>
       <c r="O53">
-        <v>94</v>
+        <v>512</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Odi Street, Ilara</t>
+          <t>21 Araromi street off Layi Oyekanmi mushin Lagos</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>LVASA/7/94/29</t>
+          <t>LVASA/16/512/22</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab12</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>ADEMOLA AKANDE
+RACHAEL OGHENEWAIRE</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -6405,43 +6439,38 @@
       </c>
       <c r="AN53" t="inlineStr">
         <is>
-          <t>The first apartment in the building</t>
+          <t>Top floor</t>
         </is>
       </c>
       <c r="AO53" t="inlineStr">
         <is>
-          <t>Adult Child</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP53" t="inlineStr">
         <is>
-          <t>High Chief Juwo of Ilara Kingdom (Alhaji Adamo Afuye)</t>
+          <t>Mr Dami Idris</t>
         </is>
       </c>
       <c r="AQ53" t="inlineStr">
         <is>
-          <t>07039687507</t>
-        </is>
-      </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>07039687507</t>
+          <t>07031298085</t>
         </is>
       </c>
       <c r="AS53" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT53" t="inlineStr">
         <is>
-          <t>16:41:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>3001</v>
+        <v>3802</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6478,41 +6507,41 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Apapa</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>8/10 BOLAJI ONILENLA STREET (ADDO), ADDO</t>
+          <t>NIMOTA STREET, SARI -IGANMU</t>
         </is>
       </c>
       <c r="O54">
-        <v>1732</v>
+        <v>202</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>6, MAURICE ABIMBOLA STREET BY EVEN ESTATE ADDO BADORE.</t>
+          <t>6, Nimota street</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>LVASA/8/1732/80</t>
+          <t>LVASA/5/202/7</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab19</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -6522,7 +6551,7 @@
       </c>
       <c r="AN54" t="inlineStr">
         <is>
-          <t>First room from the entrance second building in the compound</t>
+          <t>6th room of boys quarter of the first building on the left</t>
         </is>
       </c>
       <c r="AO54" t="inlineStr">
@@ -6532,28 +6561,33 @@
       </c>
       <c r="AP54" t="inlineStr">
         <is>
-          <t>Omolara Oguntayo</t>
+          <t>Abdulgani Hussain</t>
         </is>
       </c>
       <c r="AQ54" t="inlineStr">
         <is>
-          <t>8134238422</t>
+          <t>08103115174</t>
+        </is>
+      </c>
+      <c r="AR54" t="inlineStr">
+        <is>
+          <t>09134690214</t>
         </is>
       </c>
       <c r="AS54" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT54" t="inlineStr">
         <is>
-          <t>14:16:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>3123</v>
+        <v>4065</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6564,70 +6598,67 @@
         </is>
       </c>
       <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H55">
         <v>2</v>
       </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L55">
-        <v>1</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
+          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
         </is>
       </c>
       <c r="O55">
-        <v>1900</v>
+        <v>774</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Dr Dauda Beyioku str Opposite yemmat close</t>
+          <t>Line I, no 13 Ifesowapo Arowolo Community Aradagun Badagry.</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>LVASA/8/1900/24</t>
+          <t>LVASA/6/774/194</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -6637,7 +6668,7 @@
       </c>
       <c r="AN55" t="inlineStr">
         <is>
-          <t>Building 24 is built facing the road. It's entrance leads to building 25. It has flowers by the entrance of the 2nd gate</t>
+          <t>Bungalow at No 13 line I off Oremeji Ifesowapo Arowolo Community.</t>
         </is>
       </c>
       <c r="AO55" t="inlineStr">
@@ -6647,17 +6678,12 @@
       </c>
       <c r="AP55" t="inlineStr">
         <is>
-          <t>Mr Safari Awere</t>
+          <t>Mr Orishabinone Rapheal</t>
         </is>
       </c>
       <c r="AQ55" t="inlineStr">
         <is>
-          <t>8033053819</t>
-        </is>
-      </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>9029642991</t>
+          <t>07033149708</t>
         </is>
       </c>
       <c r="AS55" t="inlineStr">
@@ -6667,20 +6693,20 @@
       </c>
       <c r="AT55" t="inlineStr">
         <is>
-          <t>18:40:00</t>
+          <t>07:24:00</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>3297</v>
+        <v>4096</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D56">
@@ -6698,56 +6724,50 @@
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L56">
-        <v>2</v>
+          <t>No</t>
+        </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>84, ISALE EBUTE STREET, ADDO</t>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
         </is>
       </c>
       <c r="O56">
-        <v>1900</v>
+        <v>1688</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+          <t>4 Olayemi street Maza maza</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>LVASA/8/1900/40</t>
+          <t>LVASA/4/1688/23</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab15</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>05/03/2024</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -6757,66 +6777,66 @@
       </c>
       <c r="AN56" t="inlineStr">
         <is>
-          <t>Building 40 is opposite Lasisfasirolani villa house, isale ebute street Addo</t>
+          <t>Within the building</t>
         </is>
       </c>
       <c r="AO56" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP56" t="inlineStr">
         <is>
-          <t>Mr Emmanuel Nweke</t>
+          <t>Mr Ishola Idris</t>
         </is>
       </c>
       <c r="AQ56" t="inlineStr">
         <is>
-          <t>9034159246</t>
+          <t>08133781377</t>
         </is>
       </c>
       <c r="AS56" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="AT56" t="inlineStr">
         <is>
-          <t>16:57:00</t>
+          <t>11:27:00</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>3537</v>
+        <v>4105</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>0</v>
       </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H57">
-        <v>1</v>
-      </c>
-      <c r="I57">
-        <v>1</v>
-      </c>
       <c r="J57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -6825,41 +6845,41 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>AJARA FARM SETTLEMENT, AJARA TOPA</t>
+          <t>ARAROMI AREA, KETU EJIRIN</t>
         </is>
       </c>
       <c r="O57">
-        <v>1122</v>
+        <v>404</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Plot 14, new creature str off Agric Road Ajara Topa Badagry.</t>
+          <t>7, Oshokeji Street Ketu</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>LVASA/6/1122/42</t>
+          <t>LVASA/7/404/17</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -6869,7 +6889,7 @@
       </c>
       <c r="AN57" t="inlineStr">
         <is>
-          <t>Plot 14, The bungalow on the left hand side within along the road.</t>
+          <t>Second room by left</t>
         </is>
       </c>
       <c r="AO57" t="inlineStr">
@@ -6879,35 +6899,35 @@
       </c>
       <c r="AP57" t="inlineStr">
         <is>
-          <t>Mr John Adeopa</t>
+          <t>Mr Idowu David</t>
         </is>
       </c>
       <c r="AQ57" t="inlineStr">
         <is>
-          <t>08081430626</t>
+          <t>07044866156</t>
         </is>
       </c>
       <c r="AS57" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="AT57" t="inlineStr">
         <is>
-          <t>05:21:00</t>
+          <t>11:18:00</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>3611</v>
+        <v>4222</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D58">
@@ -6937,41 +6957,41 @@
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Lagos Mainland</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+          <t>FALODUN /ALAFIA STREET, OTTO</t>
         </is>
       </c>
       <c r="O58">
-        <v>1688</v>
+        <v>1680</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>20 Moshalashi street Maza maza maza</t>
+          <t>18 falodun Street Makoko lagos</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>LVASA/4/1688/11</t>
+          <t>LVASA/15/1680/26</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab6</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -6979,11 +6999,6 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN58" t="inlineStr">
-        <is>
-          <t>Boys quarter</t>
-        </is>
-      </c>
       <c r="AO58" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -6991,44 +7006,39 @@
       </c>
       <c r="AP58" t="inlineStr">
         <is>
-          <t>Mr Ibrahim Lawal</t>
+          <t>Christopher Patrik</t>
         </is>
       </c>
       <c r="AQ58" t="inlineStr">
         <is>
-          <t>08177199925</t>
-        </is>
-      </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>08092925903</t>
+          <t>08188850946</t>
         </is>
       </c>
       <c r="AS58" t="inlineStr">
         <is>
-          <t>Wednesday,Friday,Saturday,Sunday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT58" t="inlineStr">
         <is>
-          <t>13:46:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>3614</v>
+        <v>4467</v>
       </c>
       <c r="B59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -7041,6 +7051,9 @@
       <c r="H59">
         <v>1</v>
       </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
       <c r="J59">
         <v>1</v>
       </c>
@@ -7051,41 +7064,41 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Ikorodu</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+          <t>ALANISALAU/OLAOGUN, ISHAWO</t>
         </is>
       </c>
       <c r="O59">
-        <v>1688</v>
+        <v>28</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>15 Olayemi street maza maza</t>
+          <t>From agric take a bike stop at Olukemi bustop. No26  , ISHAWO ikorodu  off Tayo Balogun street</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>LVASA/4/1688/14</t>
+          <t>LVASA/12/28/16</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab18</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>AYOKU DAMILOLA
+SANNI EZEKIEL</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -7095,57 +7108,52 @@
       </c>
       <c r="AN59" t="inlineStr">
         <is>
-          <t>Third room on the left</t>
+          <t>From agric take a bike stop at Olukemi bustop. No26  , ISHAWO ikorodu  off Tayo Balogun street</t>
         </is>
       </c>
       <c r="AO59" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP59" t="inlineStr">
         <is>
-          <t>Mr Kehinde Rafiu</t>
+          <t>Mrs nenty David</t>
         </is>
       </c>
       <c r="AQ59" t="inlineStr">
         <is>
-          <t>08163626024</t>
-        </is>
-      </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>09073243221</t>
+          <t>09051083245</t>
         </is>
       </c>
       <c r="AS59" t="inlineStr">
         <is>
-          <t>Wednesday,Friday,Saturday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
         </is>
       </c>
       <c r="AT59" t="inlineStr">
         <is>
-          <t>10:47:00</t>
+          <t>08:40:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>3616</v>
+        <v>4582</v>
       </c>
       <c r="B60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -7155,8 +7163,11 @@
       <c r="H60">
         <v>1</v>
       </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
       <c r="J60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -7165,35 +7176,35 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+          <t>ILUNLA AREA/BEMARD ONYEMAKONOR, ARADAGUN</t>
         </is>
       </c>
       <c r="O60">
-        <v>1688</v>
+        <v>790</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>11 Olayemi street maza maza</t>
+          <t>STT  pure water area, Mr Ogunesan compound.</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>LVASA/4/1688/16</t>
+          <t>LVASA/6/790/18</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -7209,43 +7220,38 @@
       </c>
       <c r="AN60" t="inlineStr">
         <is>
-          <t>First room on right</t>
+          <t>The building behind Mrs Ogunesan shop, 2nd flat.</t>
         </is>
       </c>
       <c r="AO60" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Live-in Caregiver</t>
         </is>
       </c>
       <c r="AP60" t="inlineStr">
         <is>
-          <t>M Ridwan OLarewàju</t>
-        </is>
-      </c>
-      <c r="AQ60" t="inlineStr">
-        <is>
-          <t>09028658301</t>
+          <t>Iya Bolu</t>
         </is>
       </c>
       <c r="AR60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>08020722736</t>
         </is>
       </c>
       <c r="AS60" t="inlineStr">
         <is>
-          <t>Friday,Saturday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="AT60" t="inlineStr">
         <is>
-          <t>07:16:00</t>
+          <t>14:29:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>3678</v>
+        <v>4741</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -7256,7 +7262,7 @@
         </is>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -7282,41 +7288,41 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Mushin</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>RABIATU IDOWU, ILASA-MAJA</t>
+          <t>92, LANGBASA ROAD, LANGBASA</t>
         </is>
       </c>
       <c r="O61">
-        <v>512</v>
+        <v>1850</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>21 Araromi street off Layi Oyekanmi mushin Lagos</t>
+          <t>LANGBASA ROAD, TALL BUILDING WITH MARBEL WALL  OPPOSITE ECWA CHURCH   .</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>LVASA/16/512/22</t>
+          <t>LVASA/8/1850/6</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>tab12</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>ADEMOLA AKANDE
-RACHAEL OGHENEWAIRE</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -7326,7 +7332,7 @@
       </c>
       <c r="AN61" t="inlineStr">
         <is>
-          <t>Top floor</t>
+          <t>First room in the building</t>
         </is>
       </c>
       <c r="AO61" t="inlineStr">
@@ -7336,35 +7342,35 @@
       </c>
       <c r="AP61" t="inlineStr">
         <is>
-          <t>Mr Dami Idris</t>
+          <t>Mrs  Adidas Beatrice</t>
         </is>
       </c>
       <c r="AQ61" t="inlineStr">
         <is>
-          <t>07031298085</t>
+          <t>08132580469</t>
         </is>
       </c>
       <c r="AS61" t="inlineStr">
         <is>
-          <t>Saturday,Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT61" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>3802</v>
+        <v>4907</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D62">
@@ -7394,41 +7400,33 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Apapa</t>
+          <t>Kosofe</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>NIMOTA STREET, SARI -IGANMU</t>
-        </is>
-      </c>
-      <c r="O62">
-        <v>202</v>
+          <t>OLAOSEBIKAN/OLASEINDE STREET, AGILITI</t>
+        </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>6, Nimota street</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>LVASA/5/202/7</t>
+          <t>5, OLASEINDE STREET AGILITI</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>tab19</t>
+          <t>tab14</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>OKUNOLA OLUWATOYIN
-OMOBAMIDELE SESI</t>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -7436,11 +7434,6 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN62" t="inlineStr">
-        <is>
-          <t>6th room of boys quarter of the first building on the left</t>
-        </is>
-      </c>
       <c r="AO62" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -7448,17 +7441,17 @@
       </c>
       <c r="AP62" t="inlineStr">
         <is>
-          <t>Abdulgani Hussain</t>
+          <t>MR ALLI</t>
         </is>
       </c>
       <c r="AQ62" t="inlineStr">
         <is>
-          <t>08103115174</t>
+          <t>08102200751</t>
         </is>
       </c>
       <c r="AR62" t="inlineStr">
         <is>
-          <t>09134690214</t>
+          <t>08108223273</t>
         </is>
       </c>
       <c r="AS62" t="inlineStr">
@@ -7468,13 +7461,13 @@
       </c>
       <c r="AT62" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>13:41:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>4065</v>
+        <v>5129</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7496,13 +7489,13 @@
         </is>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -7516,20 +7509,20 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>OGBEKEKRE/ARUKWEH STREET, ARADAGUN</t>
+          <t>ILUNLA AREA/BEMARD ONYEMAKONOR, ARADAGUN</t>
         </is>
       </c>
       <c r="O63">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Line I, no 13 Ifesowapo Arowolo Community Aradagun Badagry.</t>
+          <t>Mum Aminat house, beside fishers of men church iu nla Aradagun Badagry.</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>LVASA/6/774/194</t>
+          <t>LVASA/6/790/81</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -7539,7 +7532,7 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -7555,45 +7548,40 @@
       </c>
       <c r="AN63" t="inlineStr">
         <is>
-          <t>Bungalow at No 13 line I off Oremeji Ifesowapo Arowolo Community.</t>
+          <t>Mum Aminat house beside fishers of men Ilu nla Aradagun Badagry.</t>
         </is>
       </c>
       <c r="AO63" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Other (Specify)</t>
         </is>
       </c>
       <c r="AP63" t="inlineStr">
         <is>
-          <t>Mr Orishabinone Rapheal</t>
-        </is>
-      </c>
-      <c r="AQ63" t="inlineStr">
-        <is>
-          <t>07033149708</t>
+          <t>Dad Aminat</t>
         </is>
       </c>
       <c r="AS63" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT63" t="inlineStr">
         <is>
-          <t>07:24:00</t>
+          <t>11:55:00</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>4095</v>
+        <v>5406</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D64">
@@ -7623,41 +7611,33 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Agege</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="O64">
-        <v>1688</v>
+          <t>AKINDIYA / OGBA ROAD, SANGO</t>
+        </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>2 Olayemi street Maza maza</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>LVASA/4/1688/22</t>
+          <t>22 Akindiya street</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab7</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>EDOJAH RUTH HAPPINESS
+OLABIYI OLAJIDE</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -7667,43 +7647,38 @@
       </c>
       <c r="AN64" t="inlineStr">
         <is>
-          <t>Within the building</t>
+          <t>22 Akindiya street</t>
         </is>
       </c>
       <c r="AO64" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP64" t="inlineStr">
         <is>
-          <t>Mr Apeh</t>
+          <t>Joel Nwogbe</t>
         </is>
       </c>
       <c r="AQ64" t="inlineStr">
         <is>
-          <t>08073257595</t>
-        </is>
-      </c>
-      <c r="AR64" t="inlineStr">
-        <is>
-          <t>08073257595</t>
+          <t>08037405768</t>
         </is>
       </c>
       <c r="AS64" t="inlineStr">
         <is>
-          <t>Wednesday,Thursday,Friday</t>
+          <t>Wednesday,Thursday,Friday,Sunday</t>
         </is>
       </c>
       <c r="AT64" t="inlineStr">
         <is>
-          <t>10:57:00</t>
+          <t>13:38:00</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>4096</v>
+        <v>6002</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7714,7 +7689,7 @@
         </is>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -7727,8 +7702,11 @@
       <c r="H65">
         <v>1</v>
       </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -7737,41 +7715,33 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="O65">
-        <v>1688</v>
+          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
+        </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>4 Olayemi street Maza maza</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>LVASA/4/1688/23</t>
+          <t>9, Atake-Idodo Street</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -7781,7 +7751,7 @@
       </c>
       <c r="AN65" t="inlineStr">
         <is>
-          <t>Within the building</t>
+          <t>The first room by the right</t>
         </is>
       </c>
       <c r="AO65" t="inlineStr">
@@ -7791,33 +7761,33 @@
       </c>
       <c r="AP65" t="inlineStr">
         <is>
-          <t>Mr   John Benjamin</t>
+          <t>Mr Abass Kamilu</t>
         </is>
       </c>
       <c r="AQ65" t="inlineStr">
         <is>
-          <t>08140390472</t>
+          <t>07061633860</t>
         </is>
       </c>
       <c r="AR65" t="inlineStr">
         <is>
-          <t>08139357548</t>
+          <t>07065146296</t>
         </is>
       </c>
       <c r="AS65" t="inlineStr">
         <is>
-          <t>Thursday,Friday,Saturday</t>
+          <t>Monday,Wednesday,Thursday</t>
         </is>
       </c>
       <c r="AT65" t="inlineStr">
         <is>
-          <t>11:22:00</t>
+          <t>10:53:00</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>4105</v>
+        <v>6047</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -7828,7 +7798,7 @@
         </is>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -7842,10 +7812,10 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -7854,41 +7824,41 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Kosofe</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>ARAROMI AREA, KETU EJIRIN</t>
+          <t>OGUNLETI/KAZEEM, OJOTA</t>
         </is>
       </c>
       <c r="O66">
-        <v>404</v>
+        <v>1966</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>7, Oshokeji Street Ketu</t>
+          <t>2, RIALTO CLOSE OJOTA LAGOS</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>LVASA/7/404/17</t>
+          <t>LVASA/13/1966/25</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab14</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>ARANJU OLUKUNLE
+FUNMI AGBAJE</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -7896,11 +7866,6 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN66" t="inlineStr">
-        <is>
-          <t>Second room by left</t>
-        </is>
-      </c>
       <c r="AO66" t="inlineStr">
         <is>
           <t>Head of Household</t>
@@ -7908,28 +7873,28 @@
       </c>
       <c r="AP66" t="inlineStr">
         <is>
-          <t>Mr Idowu David</t>
+          <t>MR ADIGUN NOHEEM OLUFEMI</t>
         </is>
       </c>
       <c r="AQ66" t="inlineStr">
         <is>
-          <t>07044866156</t>
+          <t>08035118044</t>
         </is>
       </c>
       <c r="AS66" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT66" t="inlineStr">
         <is>
-          <t>11:18:00</t>
+          <t>14:01:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>4222</v>
+        <v>6695</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -7966,41 +7931,33 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Lagos Mainland</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>FALODUN /ALAFIA STREET, OTTO</t>
-        </is>
-      </c>
-      <c r="O67">
-        <v>1680</v>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>18 falodun Street Makoko lagos</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>LVASA/15/1680/26</t>
+          <t>2, Pobona College, Poka Epe</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>tab6</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>ODIAGBE JOHN
-BANKE OLOWU</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -8008,6 +7965,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN67" t="inlineStr">
+        <is>
+          <t>Second room</t>
+        </is>
+      </c>
       <c r="AO67" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -8015,17 +7977,22 @@
       </c>
       <c r="AP67" t="inlineStr">
         <is>
-          <t>Christopher Patrik</t>
+          <t>Mr Olalere Paul</t>
         </is>
       </c>
       <c r="AQ67" t="inlineStr">
         <is>
-          <t>08188850946</t>
+          <t>08060706488</t>
+        </is>
+      </c>
+      <c r="AR67" t="inlineStr">
+        <is>
+          <t>08129110467</t>
         </is>
       </c>
       <c r="AS67" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Thursday,Friday</t>
         </is>
       </c>
       <c r="AT67" t="inlineStr">
@@ -8036,18 +8003,18 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>4467</v>
+        <v>6695</v>
       </c>
       <c r="B68">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -8073,41 +8040,33 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Ikorodu</t>
+          <t>Epe</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>ALANISALAU/OLAOGUN, ISHAWO</t>
-        </is>
-      </c>
-      <c r="O68">
-        <v>28</v>
+          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
+        </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>From agric take a bike stop at Olukemi bustop. No26  , ISHAWO ikorodu  off Tayo Balogun street</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>LVASA/12/28/16</t>
+          <t>2, Pobona College, Poka Epe</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>tab18</t>
+          <t>tab16</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>AYOKU DAMILOLA
-SANNI EZEKIEL</t>
+          <t>OJO MOSHOOD ADEMUYIWA
+OMOBOLAJI LASISI</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -8117,52 +8076,57 @@
       </c>
       <c r="AN68" t="inlineStr">
         <is>
-          <t>From agric take a bike stop at Olukemi bustop. No26  , ISHAWO ikorodu  off Tayo Balogun street</t>
+          <t>Second room</t>
         </is>
       </c>
       <c r="AO68" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP68" t="inlineStr">
         <is>
-          <t>Mrs nenty David</t>
+          <t>Mr Olalere Paul</t>
         </is>
       </c>
       <c r="AQ68" t="inlineStr">
         <is>
-          <t>09051083245</t>
+          <t>08060706488</t>
+        </is>
+      </c>
+      <c r="AR68" t="inlineStr">
+        <is>
+          <t>08129110467</t>
         </is>
       </c>
       <c r="AS68" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday</t>
+          <t>Thursday,Friday</t>
         </is>
       </c>
       <c r="AT68" t="inlineStr">
         <is>
-          <t>08:40:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>4582</v>
+        <v>6789</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -8190,20 +8154,12 @@
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>ILUNLA AREA/BEMARD ONYEMAKONOR, ARADAGUN</t>
-        </is>
-      </c>
-      <c r="O69">
-        <v>790</v>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>STT  pure water area, Mr Ogunesan compound.</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>LVASA/6/790/18</t>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -8213,7 +8169,7 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -8229,38 +8185,43 @@
       </c>
       <c r="AN69" t="inlineStr">
         <is>
-          <t>The building behind Mrs Ogunesan shop, 2nd flat.</t>
+          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="AO69" t="inlineStr">
         <is>
-          <t>Live-in Caregiver</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP69" t="inlineStr">
         <is>
-          <t>Iya Bolu</t>
+          <t>Mr Ayeni Stephen</t>
+        </is>
+      </c>
+      <c r="AQ69" t="inlineStr">
+        <is>
+          <t>08037717004</t>
         </is>
       </c>
       <c r="AR69" t="inlineStr">
         <is>
-          <t>08020722736</t>
+          <t>08037327997</t>
         </is>
       </c>
       <c r="AS69" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT69" t="inlineStr">
         <is>
-          <t>14:29:00</t>
+          <t>05:52:00</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>4741</v>
+        <v>6789</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8271,7 +8232,7 @@
         </is>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -8288,7 +8249,7 @@
         <v>1</v>
       </c>
       <c r="J70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -8297,41 +8258,33 @@
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>92, LANGBASA ROAD, LANGBASA</t>
-        </is>
-      </c>
-      <c r="O70">
-        <v>1850</v>
+          <t>AYEDUN BUSTOP, MOWO</t>
+        </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>LANGBASA ROAD, TALL BUILDING WITH MARBEL WALL  OPPOSITE ECWA CHURCH   .</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>LVASA/8/1850/6</t>
+          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -8341,45 +8294,50 @@
       </c>
       <c r="AN70" t="inlineStr">
         <is>
-          <t>First room in the building</t>
+          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
         </is>
       </c>
       <c r="AO70" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP70" t="inlineStr">
         <is>
-          <t>Mrs  Adidas Beatrice</t>
+          <t>Mr Ayeni Stephen</t>
         </is>
       </c>
       <c r="AQ70" t="inlineStr">
         <is>
-          <t>08132580469</t>
+          <t>08037717004</t>
+        </is>
+      </c>
+      <c r="AR70" t="inlineStr">
+        <is>
+          <t>08037327997</t>
         </is>
       </c>
       <c r="AS70" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT70" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>05:52:00</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>4907</v>
+        <v>7263</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D71">
@@ -8394,13 +8352,10 @@
         </is>
       </c>
       <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -8409,33 +8364,33 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Kosofe</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>OLAOSEBIKAN/OLASEINDE STREET, AGILITI</t>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>5, OLASEINDE STREET AGILITI</t>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>tab14</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>ARANJU OLUKUNLE
-FUNMI AGBAJE</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -8443,40 +8398,40 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN71" t="inlineStr">
+        <is>
+          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+        </is>
+      </c>
       <c r="AO71" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP71" t="inlineStr">
         <is>
-          <t>MR ALLI</t>
+          <t>Mr Kunle Dosa</t>
         </is>
       </c>
       <c r="AQ71" t="inlineStr">
         <is>
-          <t>08102200751</t>
-        </is>
-      </c>
-      <c r="AR71" t="inlineStr">
-        <is>
-          <t>08108223273</t>
+          <t>07083268507</t>
         </is>
       </c>
       <c r="AS71" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT71" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>09:36:00</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>5129</v>
+        <v>7263</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8498,13 +8453,10 @@
         </is>
       </c>
       <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -8518,20 +8470,12 @@
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>ILUNLA AREA/BEMARD ONYEMAKONOR, ARADAGUN</t>
-        </is>
-      </c>
-      <c r="O72">
-        <v>790</v>
+          <t>SINGBOMEH COMPOUND, MOWO</t>
+        </is>
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Mum Aminat house, beside fishers of men church iu nla Aradagun Badagry.</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>LVASA/6/790/81</t>
+          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -8541,7 +8485,7 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -8557,40 +8501,45 @@
       </c>
       <c r="AN72" t="inlineStr">
         <is>
-          <t>Mum Aminat house beside fishers of men Ilu nla Aradagun Badagry.</t>
+          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
         </is>
       </c>
       <c r="AO72" t="inlineStr">
         <is>
-          <t>Other (Specify)</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP72" t="inlineStr">
         <is>
-          <t>Dad Aminat</t>
+          <t>Mr Kunle Dosa</t>
+        </is>
+      </c>
+      <c r="AQ72" t="inlineStr">
+        <is>
+          <t>07083268507</t>
         </is>
       </c>
       <c r="AS72" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT72" t="inlineStr">
         <is>
-          <t>11:55:00</t>
+          <t>09:36:00</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>5406</v>
+        <v>7570</v>
       </c>
       <c r="B73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D73">
@@ -8608,7 +8557,7 @@
         <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
         <v>1</v>
@@ -8620,33 +8569,33 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Agege</t>
+          <t>Apapa</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>AKINDIYA / OGBA ROAD, SANGO</t>
+          <t>SARI STREET NO 19 -5, SARI-IGANMU</t>
         </is>
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>22 Akindiya street</t>
+          <t>21 sari Street apapa lagos</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>tab7</t>
+          <t>tab6</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>EDOJAH RUTH HAPPINESS
-OLABIYI OLAJIDE</t>
+          <t>OKUNOLA OLUWATOYIN
+OMOBAMIDELE SESI</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -8654,47 +8603,42 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN73" t="inlineStr">
-        <is>
-          <t>22 Akindiya street</t>
-        </is>
-      </c>
       <c r="AO73" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP73" t="inlineStr">
         <is>
-          <t>Joel Nwogbe</t>
-        </is>
-      </c>
-      <c r="AQ73" t="inlineStr">
-        <is>
-          <t>08037405768</t>
+          <t>Sodiq Musibau</t>
+        </is>
+      </c>
+      <c r="AR73" t="inlineStr">
+        <is>
+          <t>08162331787</t>
         </is>
       </c>
       <c r="AS73" t="inlineStr">
         <is>
-          <t>Wednesday,Thursday,Friday,Sunday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT73" t="inlineStr">
         <is>
-          <t>13:38:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>5783</v>
+        <v>7707</v>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D74">
@@ -8712,10 +8656,10 @@
         <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -8724,33 +8668,41 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Alimosho</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>IJEGUN EGBA MARKET, IJEGUN</t>
-        </is>
+          <t>OLUSESI II, IKOTUN</t>
+        </is>
+      </c>
+      <c r="O74">
+        <v>5164</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>30 Olasonoye street ijegun market</t>
+          <t>23 olusesi street off liasu Rd ikotun</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>LVASA/3/5164/13</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab8</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -8760,7 +8712,7 @@
       </c>
       <c r="AN74" t="inlineStr">
         <is>
-          <t>Ground floor</t>
+          <t>Room 6</t>
         </is>
       </c>
       <c r="AO74" t="inlineStr">
@@ -8770,28 +8722,28 @@
       </c>
       <c r="AP74" t="inlineStr">
         <is>
-          <t>Mr Nnaji</t>
+          <t>Edwin Naomi</t>
         </is>
       </c>
       <c r="AQ74" t="inlineStr">
         <is>
-          <t>09135754333</t>
+          <t>08020310415</t>
         </is>
       </c>
       <c r="AS74" t="inlineStr">
         <is>
-          <t>Friday,Saturday,Sunday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT74" t="inlineStr">
         <is>
-          <t>10:57:00</t>
+          <t>14:17:00</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>6002</v>
+        <v>7748</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8815,11 +8767,8 @@
       <c r="H75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
       <c r="J75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -8828,33 +8777,41 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>IJEBU ODE RD/ITUN DENDEREN ST, POKA</t>
-        </is>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O75">
+        <v>188</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>9, Atake-Idodo Street</t>
+          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>LVASA/6/188/77</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -8864,50 +8821,45 @@
       </c>
       <c r="AN75" t="inlineStr">
         <is>
-          <t>The first room by the right</t>
+          <t>A stand a stand alone bungalow in No 7.</t>
         </is>
       </c>
       <c r="AO75" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP75" t="inlineStr">
         <is>
-          <t>Mr Abass Kamilu</t>
+          <t>Mr Amadu Musa</t>
         </is>
       </c>
       <c r="AQ75" t="inlineStr">
         <is>
-          <t>07061633860</t>
-        </is>
-      </c>
-      <c r="AR75" t="inlineStr">
-        <is>
-          <t>07065146296</t>
+          <t>09046256217</t>
         </is>
       </c>
       <c r="AS75" t="inlineStr">
         <is>
-          <t>Monday,Wednesday,Thursday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="AT75" t="inlineStr">
         <is>
-          <t>10:53:00</t>
+          <t>06:39:00</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>6047</v>
+        <v>7748</v>
       </c>
       <c r="B76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D76">
@@ -8924,11 +8876,8 @@
       <c r="H76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
       <c r="J76">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -8937,41 +8886,41 @@
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Kosofe</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>OGUNLETI/KAZEEM, OJOTA</t>
+          <t>ISAH JUBRIL STREET, OKO-AFO</t>
         </is>
       </c>
       <c r="O76">
-        <v>1966</v>
+        <v>188</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>2, RIALTO CLOSE OJOTA LAGOS</t>
+          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>LVASA/13/1966/25</t>
+          <t>LVASA/6/188/77</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>tab14</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>ARANJU OLUKUNLE
-FUNMI AGBAJE</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -8979,6 +8928,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN76" t="inlineStr">
+        <is>
+          <t>A stand a stand alone bungalow in No 7.</t>
+        </is>
+      </c>
       <c r="AO76" t="inlineStr">
         <is>
           <t>Head of Household</t>
@@ -8986,35 +8940,35 @@
       </c>
       <c r="AP76" t="inlineStr">
         <is>
-          <t>MR ADIGUN NOHEEM OLUFEMI</t>
+          <t>Mr Amadu Musa</t>
         </is>
       </c>
       <c r="AQ76" t="inlineStr">
         <is>
-          <t>08035118044</t>
+          <t>09046256217</t>
         </is>
       </c>
       <c r="AS76" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="AT76" t="inlineStr">
         <is>
-          <t>14:01:00</t>
+          <t>06:39:00</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>6499</v>
+        <v>7905</v>
       </c>
       <c r="B77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D77">
@@ -9032,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1</v>
@@ -9044,33 +8998,41 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>ADE OSHODI/ALEBIOSU, IJEGUN</t>
-        </is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O77">
+        <v>1532</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>52 Ade oshodi</t>
+          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/11</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -9078,47 +9040,42 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN77" t="inlineStr">
-        <is>
-          <t>Behind</t>
-        </is>
-      </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP77" t="inlineStr">
         <is>
-          <t>Mr Adeoye Sola</t>
+          <t>Mrs Wisdom Joy</t>
         </is>
       </c>
       <c r="AQ77" t="inlineStr">
         <is>
-          <t>08162476439</t>
+          <t>08130089308</t>
         </is>
       </c>
       <c r="AS77" t="inlineStr">
         <is>
-          <t>Thursday,Friday,Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr">
         <is>
-          <t>09:27:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>6499</v>
+        <v>7905</v>
       </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D78">
@@ -9136,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -9148,33 +9105,41 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Amuwo odofin</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>ADE OSHODI/ALEBIOSU, IJEGUN</t>
-        </is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O78">
+        <v>1532</v>
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>52 Ade oshodi</t>
+          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/11</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>tab15</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>NA
-NA</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -9182,47 +9147,42 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN78" t="inlineStr">
-        <is>
-          <t>Behind</t>
-        </is>
-      </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP78" t="inlineStr">
         <is>
-          <t>Mr Adeoye Sola</t>
+          <t>Mrs Wisdom Joy</t>
         </is>
       </c>
       <c r="AQ78" t="inlineStr">
         <is>
-          <t>08162476439</t>
+          <t>08130089308</t>
         </is>
       </c>
       <c r="AS78" t="inlineStr">
         <is>
-          <t>Thursday,Friday,Saturday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr">
         <is>
-          <t>09:27:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>6695</v>
+        <v>7917</v>
       </c>
       <c r="B79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D79">
@@ -9252,33 +9212,41 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
-        </is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O79">
+        <v>1532</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>2, Pobona College, Poka Epe</t>
+          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/22</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -9288,7 +9256,7 @@
       </c>
       <c r="AN79" t="inlineStr">
         <is>
-          <t>Second room</t>
+          <t>Compound with 2 graves in front</t>
         </is>
       </c>
       <c r="AO79" t="inlineStr">
@@ -9298,40 +9266,35 @@
       </c>
       <c r="AP79" t="inlineStr">
         <is>
-          <t>Mr Olalere Paul</t>
+          <t>Mrs Jenifer Christopher</t>
         </is>
       </c>
       <c r="AQ79" t="inlineStr">
         <is>
-          <t>08060706488</t>
-        </is>
-      </c>
-      <c r="AR79" t="inlineStr">
-        <is>
-          <t>08129110467</t>
+          <t>09166096177</t>
         </is>
       </c>
       <c r="AS79" t="inlineStr">
         <is>
-          <t>Thursday,Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="AT79" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>6695</v>
+        <v>7917</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D80">
@@ -9361,33 +9324,41 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Epe</t>
+          <t>Eti-Osa</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>POBUNA RD/ITUNDENDEREN STR., POKA</t>
-        </is>
+          <t>OKUN MOPO, OGOMBO</t>
+        </is>
+      </c>
+      <c r="O80">
+        <v>1532</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>2, Pobona College, Poka Epe</t>
+          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>LVASA/8/1532/22</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>tab16</t>
+          <t>tab21</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>OJO MOSHOOD ADEMUYIWA
-OMOBOLAJI LASISI</t>
+          <t>MOUDU ROSEWA ROSEMARY
+EFFIONG HAPPINESS</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -9397,7 +9368,7 @@
       </c>
       <c r="AN80" t="inlineStr">
         <is>
-          <t>Second room</t>
+          <t>Compound with 2 graves in front</t>
         </is>
       </c>
       <c r="AO80" t="inlineStr">
@@ -9407,40 +9378,35 @@
       </c>
       <c r="AP80" t="inlineStr">
         <is>
-          <t>Mr Olalere Paul</t>
+          <t>Mrs Jenifer Christopher</t>
         </is>
       </c>
       <c r="AQ80" t="inlineStr">
         <is>
-          <t>08060706488</t>
-        </is>
-      </c>
-      <c r="AR80" t="inlineStr">
-        <is>
-          <t>08129110467</t>
+          <t>09166096177</t>
         </is>
       </c>
       <c r="AS80" t="inlineStr">
         <is>
-          <t>Thursday,Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="AT80" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>6789</v>
+        <v>8369</v>
       </c>
       <c r="B81">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D81">
@@ -9455,7 +9421,7 @@
         </is>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -9475,12 +9441,20 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>AYEDUN BUSTOP, MOWO</t>
-        </is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O81">
+        <v>180</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/40</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -9490,7 +9464,7 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -9506,7 +9480,7 @@
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>Main building, landlord Apartment. Mr Ilori</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
@@ -9516,40 +9490,35 @@
       </c>
       <c r="AP81" t="inlineStr">
         <is>
-          <t>Mr Ayeni Stephen</t>
+          <t>Mr Ilori</t>
         </is>
       </c>
       <c r="AQ81" t="inlineStr">
         <is>
-          <t>08037717004</t>
-        </is>
-      </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>08037327997</t>
+          <t>08098127138</t>
         </is>
       </c>
       <c r="AS81" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr">
         <is>
-          <t>05:52:00</t>
+          <t>02:35:00</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>6789</v>
+        <v>8369</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D82">
@@ -9564,7 +9533,7 @@
         </is>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -9584,12 +9553,20 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>AYEDUN BUSTOP, MOWO</t>
-        </is>
+          <t>BOLAJI STREET, OKO-AFO</t>
+        </is>
+      </c>
+      <c r="O82">
+        <v>180</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>LVASA/6/180/40</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
@@ -9599,7 +9576,7 @@
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -9615,7 +9592,7 @@
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>Mr Ayeni Stephen's house @Adewale Gbagbose close off ikoga road Movo Badagry.</t>
+          <t>Main building, landlord Apartment. Mr Ilori</t>
         </is>
       </c>
       <c r="AO82" t="inlineStr">
@@ -9625,40 +9602,35 @@
       </c>
       <c r="AP82" t="inlineStr">
         <is>
-          <t>Mr Ayeni Stephen</t>
+          <t>Mr Ilori</t>
         </is>
       </c>
       <c r="AQ82" t="inlineStr">
         <is>
-          <t>08037717004</t>
-        </is>
-      </c>
-      <c r="AR82" t="inlineStr">
-        <is>
-          <t>08037327997</t>
+          <t>08098127138</t>
         </is>
       </c>
       <c r="AS82" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="AT82" t="inlineStr">
         <is>
-          <t>05:52:00</t>
+          <t>02:35:00</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>6925</v>
+        <v>8580</v>
       </c>
       <c r="B83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D83">
@@ -9688,38 +9660,33 @@
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>BOLAJI STREET, OKO-AFO</t>
         </is>
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>41 ishaga road itire surulere</t>
-        </is>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>41 ishaga road itire surulere</t>
+          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -9729,7 +9696,7 @@
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>Room 2</t>
+          <t>Fenced bungalow building.</t>
         </is>
       </c>
       <c r="AO83" t="inlineStr">
@@ -9739,35 +9706,35 @@
       </c>
       <c r="AP83" t="inlineStr">
         <is>
-          <t>Odushina bimpe</t>
+          <t>Mrs Willoby Edna</t>
         </is>
       </c>
       <c r="AQ83" t="inlineStr">
         <is>
-          <t>08023821284</t>
+          <t>08036210268</t>
         </is>
       </c>
       <c r="AS83" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="AT83" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:33:00</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>6925</v>
+        <v>8580</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D84">
@@ -9797,38 +9764,33 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Badagry</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>BOLAJI STREET, OKO-AFO</t>
         </is>
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>41 ishaga road itire surulere</t>
-        </is>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>41 ishaga road itire surulere</t>
+          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -9838,7 +9800,7 @@
       </c>
       <c r="AN84" t="inlineStr">
         <is>
-          <t>Room 2</t>
+          <t>Fenced bungalow building.</t>
         </is>
       </c>
       <c r="AO84" t="inlineStr">
@@ -9848,35 +9810,35 @@
       </c>
       <c r="AP84" t="inlineStr">
         <is>
-          <t>Odushina bimpe</t>
+          <t>Mrs Willoby Edna</t>
         </is>
       </c>
       <c r="AQ84" t="inlineStr">
         <is>
-          <t>08023821284</t>
+          <t>08036210268</t>
         </is>
       </c>
       <c r="AS84" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="AT84" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>11:33:00</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>6929</v>
+        <v>9062</v>
       </c>
       <c r="B85">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D85">
@@ -9887,6 +9849,11 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
@@ -9897,7 +9864,7 @@
         <v>1</v>
       </c>
       <c r="J85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -9906,22 +9873,17 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Alimosho</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>31 ishaga road itire surulere</t>
-        </is>
-      </c>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>31 ishaga road itire surulere</t>
+          <t>16 fatade street ikotun ijegun</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -9931,13 +9893,13 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -9947,7 +9909,7 @@
       </c>
       <c r="AN85" t="inlineStr">
         <is>
-          <t>Room 7</t>
+          <t>Room 6</t>
         </is>
       </c>
       <c r="AO85" t="inlineStr">
@@ -9957,12 +9919,7 @@
       </c>
       <c r="AP85" t="inlineStr">
         <is>
-          <t>Taofeek Jimoh</t>
-        </is>
-      </c>
-      <c r="AQ85" t="inlineStr">
-        <is>
-          <t>08162453535</t>
+          <t>Daniel Eze</t>
         </is>
       </c>
       <c r="AS85" t="inlineStr">
@@ -9972,20 +9929,20 @@
       </c>
       <c r="AT85" t="inlineStr">
         <is>
-          <t>12:29:00</t>
+          <t>12:52:00</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>6929</v>
+        <v>9072</v>
       </c>
       <c r="B86">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D86">
@@ -10015,22 +9972,22 @@
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Alimosho</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>ISHAGA, ITIRE</t>
+          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
         </is>
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>31 ishaga road itire surulere</t>
+          <t>12 Anani street ikotun ijegun road</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>31 ishaga road itire surulere</t>
+          <t>Room 1</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
@@ -10040,13 +9997,13 @@
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>MICHAEL GLORIA
+JOSIAH OGUNJOBI</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -10056,7 +10013,7 @@
       </c>
       <c r="AN86" t="inlineStr">
         <is>
-          <t>Room 7</t>
+          <t>Room 1</t>
         </is>
       </c>
       <c r="AO86" t="inlineStr">
@@ -10066,12 +10023,12 @@
       </c>
       <c r="AP86" t="inlineStr">
         <is>
-          <t>Taofeek Jimoh</t>
+          <t>Aishat isah</t>
         </is>
       </c>
       <c r="AQ86" t="inlineStr">
         <is>
-          <t>08162453535</t>
+          <t>08124889891</t>
         </is>
       </c>
       <c r="AS86" t="inlineStr">
@@ -10081,20 +10038,20 @@
       </c>
       <c r="AT86" t="inlineStr">
         <is>
-          <t>12:29:00</t>
+          <t>14:24:00</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>7170</v>
+        <v>9108</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D87">
@@ -10114,9 +10071,6 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>No</t>
@@ -10124,38 +10078,33 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Lagos Mainland</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+          <t>AIYETORO STREET, MAKOKO</t>
         </is>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>22 falohun street orile surulere</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>Grey 2 story</t>
+          <t>16 Aiyetoro Street Makoko lagos</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab6</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -10163,24 +10112,19 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN87" t="inlineStr">
-        <is>
-          <t>Flat 3</t>
-        </is>
-      </c>
       <c r="AO87" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP87" t="inlineStr">
         <is>
-          <t>Ifeanyi Okoli</t>
-        </is>
-      </c>
-      <c r="AQ87" t="inlineStr">
-        <is>
-          <t>08037775360</t>
+          <t>Alore Tanes</t>
+        </is>
+      </c>
+      <c r="AR87" t="inlineStr">
+        <is>
+          <t>09058981549</t>
         </is>
       </c>
       <c r="AS87" t="inlineStr">
@@ -10190,20 +10134,20 @@
       </c>
       <c r="AT87" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>7170</v>
+        <v>9108</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D88">
@@ -10223,9 +10167,6 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>1</v>
-      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>No</t>
@@ -10233,38 +10174,33 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Surulere</t>
+          <t>Lagos Mainland</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>FALOHUN STREET 1, ORILE IGANMU</t>
+          <t>AIYETORO STREET, MAKOKO</t>
         </is>
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>22 falohun street orile surulere</t>
-        </is>
-      </c>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>Grey 2 story</t>
+          <t>16 Aiyetoro Street Makoko lagos</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab6</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>JOHNSON-BEZI ANTHONY
-Osemene Joshua Chukwunonso</t>
+          <t>ODIAGBE JOHN
+BANKE OLOWU</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -10272,24 +10208,19 @@
           <t>Approved</t>
         </is>
       </c>
-      <c r="AN88" t="inlineStr">
-        <is>
-          <t>Flat 3</t>
-        </is>
-      </c>
       <c r="AO88" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Spouse/Partner</t>
         </is>
       </c>
       <c r="AP88" t="inlineStr">
         <is>
-          <t>Ifeanyi Okoli</t>
-        </is>
-      </c>
-      <c r="AQ88" t="inlineStr">
-        <is>
-          <t>08037775360</t>
+          <t>Alore Tanes</t>
+        </is>
+      </c>
+      <c r="AR88" t="inlineStr">
+        <is>
+          <t>09058981549</t>
         </is>
       </c>
       <c r="AS88" t="inlineStr">
@@ -10299,20 +10230,20 @@
       </c>
       <c r="AT88" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>7263</v>
+        <v>9703</v>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D89">
@@ -10327,10 +10258,13 @@
         </is>
       </c>
       <c r="H89">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
       </c>
       <c r="J89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -10339,27 +10273,27 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Ajeromi</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>SINGBOMEH COMPOUND, MOWO</t>
+          <t>28, RABIU ADIO, TOLU</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab20</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -10375,7 +10309,7 @@
       </c>
       <c r="AN89" t="inlineStr">
         <is>
-          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>ROOM 7, HOUSE NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
         </is>
       </c>
       <c r="AO89" t="inlineStr">
@@ -10385,35 +10319,35 @@
       </c>
       <c r="AP89" t="inlineStr">
         <is>
-          <t>Mr Kunle Dosa</t>
+          <t>MR OLUFA GANIU</t>
         </is>
       </c>
       <c r="AQ89" t="inlineStr">
         <is>
-          <t>07083268507</t>
+          <t>08052064955</t>
         </is>
       </c>
       <c r="AS89" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT89" t="inlineStr">
         <is>
-          <t>09:36:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>7263</v>
+        <v>9747</v>
       </c>
       <c r="B90">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D90">
@@ -10428,10 +10362,13 @@
         </is>
       </c>
       <c r="H90">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -10440,27 +10377,35 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>SINGBOMEH COMPOUND, MOWO</t>
-        </is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="O90">
+        <v>904</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>tab4</t>
+          <t>tab15</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -10476,7 +10421,7 @@
       </c>
       <c r="AN90" t="inlineStr">
         <is>
-          <t>Mr Kunle Dosa compound, oreolwa close singbomeh Quarter Age Mowo Badagry.</t>
+          <t>Navy compound</t>
         </is>
       </c>
       <c r="AO90" t="inlineStr">
@@ -10486,35 +10431,35 @@
       </c>
       <c r="AP90" t="inlineStr">
         <is>
-          <t>Mr Kunle Dosa</t>
+          <t>Mrs Ganiyat Odunsi</t>
         </is>
       </c>
       <c r="AQ90" t="inlineStr">
         <is>
-          <t>07083268507</t>
+          <t>09042509732</t>
         </is>
       </c>
       <c r="AS90" t="inlineStr">
         <is>
-          <t>Wednesday</t>
+          <t>Wednesday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT90" t="inlineStr">
         <is>
-          <t>09:36:00</t>
+          <t>12:24:00</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>7570</v>
+        <v>9747</v>
       </c>
       <c r="B91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D91">
@@ -10532,10 +10477,10 @@
         <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -10544,33 +10489,41 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Apapa</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>SARI STREET NO 19 -5, SARI-IGANMU</t>
-        </is>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
+        </is>
+      </c>
+      <c r="O91">
+        <v>904</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>21 sari Street apapa lagos</t>
+          <t>6 Navy compound</t>
+        </is>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>LVASA/4/904/16</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>tab6</t>
+          <t>tab15</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>OKUNOLA OLUWATOYIN
-OMOBAMIDELE SESI</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -10578,35 +10531,40 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN91" t="inlineStr">
+        <is>
+          <t>Navy compound</t>
+        </is>
+      </c>
       <c r="AO91" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP91" t="inlineStr">
         <is>
-          <t>Sodiq Musibau</t>
-        </is>
-      </c>
-      <c r="AR91" t="inlineStr">
-        <is>
-          <t>08162331787</t>
+          <t>Mrs Ganiyat Odunsi</t>
+        </is>
+      </c>
+      <c r="AQ91" t="inlineStr">
+        <is>
+          <t>09042509732</t>
         </is>
       </c>
       <c r="AS91" t="inlineStr">
         <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
+          <t>Wednesday,Friday,Saturday,Sunday</t>
         </is>
       </c>
       <c r="AT91" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:24:00</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>7707</v>
+        <v>9748</v>
       </c>
       <c r="B92">
         <v>6</v>
@@ -10631,10 +10589,10 @@
         <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -10643,89 +10601,59 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Alimosho</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>OLUSESI II, IKOTUN</t>
+          <t>IDI ABA, IGBOLOGUN VIL.</t>
         </is>
       </c>
       <c r="O92">
-        <v>5164</v>
+        <v>904</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>23 olusesi street off liasu Rd ikotun</t>
+          <t>3 Adugbo oya</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>LVASA/3/5164/13</t>
+          <t>LVASA/4/904/17</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>tab8</t>
+          <t>tab15</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>MICHAEL GLORIA
-JOSIAH OGUNJOBI</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
           <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN92" t="inlineStr">
-        <is>
-          <t>Room 6</t>
-        </is>
-      </c>
-      <c r="AO92" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP92" t="inlineStr">
-        <is>
-          <t>Edwin Naomi</t>
-        </is>
-      </c>
-      <c r="AQ92" t="inlineStr">
-        <is>
-          <t>08020310415</t>
-        </is>
-      </c>
-      <c r="AS92" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT92" t="inlineStr">
-        <is>
-          <t>14:17:00</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>7748</v>
+        <v>9758</v>
       </c>
       <c r="B93">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D93">
@@ -10742,8 +10670,11 @@
       <c r="H93">
         <v>1</v>
       </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
       <c r="J93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -10752,25 +10683,17 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>ISAH JUBRIL STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O93">
-        <v>188</v>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>LVASA/6/188/77</t>
+          <t>No 1, Sheibu Str. Masa Masa</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
@@ -10780,7 +10703,7 @@
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -10796,7 +10719,7 @@
       </c>
       <c r="AN93" t="inlineStr">
         <is>
-          <t>A stand a stand alone bungalow in No 7.</t>
+          <t>4th rm on the left within the main building</t>
         </is>
       </c>
       <c r="AO93" t="inlineStr">
@@ -10806,35 +10729,35 @@
       </c>
       <c r="AP93" t="inlineStr">
         <is>
-          <t>Mr Amadu Musa</t>
+          <t>Mrs Abidemi Akabogu</t>
         </is>
       </c>
       <c r="AQ93" t="inlineStr">
         <is>
-          <t>09046256217</t>
+          <t>07066029679</t>
         </is>
       </c>
       <c r="AS93" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="AT93" t="inlineStr">
         <is>
-          <t>06:39:00</t>
+          <t>12:57:00</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>7748</v>
+        <v>9760</v>
       </c>
       <c r="B94">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D94">
@@ -10851,8 +10774,11 @@
       <c r="H94">
         <v>1</v>
       </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
       <c r="J94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -10861,25 +10787,17 @@
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>ISAH JUBRIL STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O94">
-        <v>188</v>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>No 7, Daniel Awoyemi close Comforter road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>LVASA/6/188/77</t>
+          <t>11, Moshalashi street Amuwo Odofin Lagos</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -10889,7 +10807,7 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
@@ -10905,45 +10823,45 @@
       </c>
       <c r="AN94" t="inlineStr">
         <is>
-          <t>A stand a stand alone bungalow in No 7.</t>
+          <t>The 8th room on the right within the bungalow building</t>
         </is>
       </c>
       <c r="AO94" t="inlineStr">
         <is>
-          <t>Head of Household</t>
+          <t>Other (Specify)</t>
         </is>
       </c>
       <c r="AP94" t="inlineStr">
         <is>
-          <t>Mr Amadu Musa</t>
-        </is>
-      </c>
-      <c r="AQ94" t="inlineStr">
-        <is>
-          <t>09046256217</t>
+          <t>Baba Divine</t>
+        </is>
+      </c>
+      <c r="AR94" t="inlineStr">
+        <is>
+          <t>08088215719</t>
         </is>
       </c>
       <c r="AS94" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Friday</t>
         </is>
       </c>
       <c r="AT94" t="inlineStr">
         <is>
-          <t>06:39:00</t>
+          <t>12:31:00</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>7905</v>
+        <v>9769</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D95">
@@ -10964,7 +10882,7 @@
         <v>1</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -10973,41 +10891,33 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
-        </is>
-      </c>
-      <c r="O95">
-        <v>1532</v>
+          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
+        </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
-        </is>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>LVASA/8/1532/11</t>
+          <t>No19, Moshalashi str Masa Masa Amuwo Odofin Lagos.</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-23</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -11015,6 +10925,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN95" t="inlineStr">
+        <is>
+          <t>1st building on the 4th</t>
+        </is>
+      </c>
       <c r="AO95" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -11022,28 +10937,28 @@
       </c>
       <c r="AP95" t="inlineStr">
         <is>
-          <t>Mrs Wisdom Joy</t>
+          <t>Mr Sotemesi Ajasa</t>
         </is>
       </c>
       <c r="AQ95" t="inlineStr">
         <is>
-          <t>08130089308</t>
+          <t>08033952012</t>
         </is>
       </c>
       <c r="AS95" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT95" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>11:17:00</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>7905</v>
+        <v>9777</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -11054,7 +10969,7 @@
         </is>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -11071,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -11080,41 +10995,33 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
-        </is>
-      </c>
-      <c r="O96">
-        <v>1532</v>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Second building by Ogudu junction after ALHAJI F. S  Edunjobi street, ogombo</t>
-        </is>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>LVASA/8/1532/11</t>
+          <t>21, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-24</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -11122,6 +11029,11 @@
           <t>Approved</t>
         </is>
       </c>
+      <c r="AN96" t="inlineStr">
+        <is>
+          <t>The first room by the left within the bungalow building</t>
+        </is>
+      </c>
       <c r="AO96" t="inlineStr">
         <is>
           <t>Spouse/Partner</t>
@@ -11129,35 +11041,35 @@
       </c>
       <c r="AP96" t="inlineStr">
         <is>
-          <t>Mrs Wisdom Joy</t>
-        </is>
-      </c>
-      <c r="AQ96" t="inlineStr">
-        <is>
-          <t>08130089308</t>
+          <t>Mr Sheu Raheem</t>
+        </is>
+      </c>
+      <c r="AR96" t="inlineStr">
+        <is>
+          <t>08084941265</t>
         </is>
       </c>
       <c r="AS96" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT96" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>7917</v>
+        <v>9779</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D97">
@@ -11178,7 +11090,7 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -11187,41 +11099,33 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
-        </is>
-      </c>
-      <c r="O97">
-        <v>1532</v>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
-        </is>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>LVASA/8/1532/22</t>
+          <t>25, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-24</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -11231,7 +11135,7 @@
       </c>
       <c r="AN97" t="inlineStr">
         <is>
-          <t>Compound with 2 graves in front</t>
+          <t>The second room by the right within the bungalow building</t>
         </is>
       </c>
       <c r="AO97" t="inlineStr">
@@ -11241,35 +11145,35 @@
       </c>
       <c r="AP97" t="inlineStr">
         <is>
-          <t>Mrs Jenifer Christopher</t>
+          <t>Mr Anaba Muyiwa</t>
         </is>
       </c>
       <c r="AQ97" t="inlineStr">
         <is>
-          <t>09166096177</t>
+          <t>08029972064</t>
         </is>
       </c>
       <c r="AS97" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Wednesday</t>
         </is>
       </c>
       <c r="AT97" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>7917</v>
+        <v>9791</v>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D98">
@@ -11290,7 +11194,7 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -11299,41 +11203,33 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Eti-Osa</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>OKUN MOPO, OGOMBO</t>
-        </is>
-      </c>
-      <c r="O98">
-        <v>1532</v>
+          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
+        </is>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Building in-between clustered blocks behind the mosque with 2 graves in front</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>LVASA/8/1532/22</t>
+          <t>No 26, Olayemi str Masa Masa, Odofin Lagos.</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>tab21</t>
+          <t>tab4</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-24</t>
         </is>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>MOUDU ROSEWA ROSEMARY
-EFFIONG HAPPINESS</t>
+          <t>NA
+NA</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -11343,45 +11239,45 @@
       </c>
       <c r="AN98" t="inlineStr">
         <is>
-          <t>Compound with 2 graves in front</t>
+          <t>Room within the building.</t>
         </is>
       </c>
       <c r="AO98" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP98" t="inlineStr">
         <is>
-          <t>Mrs Jenifer Christopher</t>
+          <t>Mr Edna Sunday</t>
         </is>
       </c>
       <c r="AQ98" t="inlineStr">
         <is>
-          <t>09166096177</t>
+          <t>08110210412</t>
         </is>
       </c>
       <c r="AS98" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="AT98" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>05:57:00</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>8369</v>
+        <v>9796</v>
       </c>
       <c r="B99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D99">
@@ -11396,13 +11292,13 @@
         </is>
       </c>
       <c r="H99">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -11411,25 +11307,17 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>BOLAJI STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O99">
-        <v>180</v>
+          <t>SAIBU /BADUM / YUSUF, MASAMASA</t>
+        </is>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>LVASA/6/180/40</t>
+          <t>4, Shaibu Close, Villa Park</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -11439,7 +11327,7 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-24</t>
         </is>
       </c>
       <c r="U99" t="inlineStr">
@@ -11455,45 +11343,45 @@
       </c>
       <c r="AN99" t="inlineStr">
         <is>
-          <t>Main building, landlord Apartment. Mr Ilori</t>
+          <t>The 4th room within the BQ in the compound</t>
         </is>
       </c>
       <c r="AO99" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Adult Child</t>
         </is>
       </c>
       <c r="AP99" t="inlineStr">
         <is>
-          <t>Mr Ilori</t>
-        </is>
-      </c>
-      <c r="AQ99" t="inlineStr">
-        <is>
-          <t>08098127138</t>
+          <t>Mr Kolawole Isa</t>
+        </is>
+      </c>
+      <c r="AR99" t="inlineStr">
+        <is>
+          <t>09156506365</t>
         </is>
       </c>
       <c r="AS99" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="AT99" t="inlineStr">
         <is>
-          <t>02:35:00</t>
+          <t>13:06:00</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>8369</v>
+        <v>10154</v>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D100">
@@ -11514,7 +11402,7 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -11523,25 +11411,17 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Badagry</t>
+          <t>Amuwo odofin</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>BOLAJI STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="O100">
-        <v>180</v>
+          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
+        </is>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>No 9, Bolaji Str off John Amaka road Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>LVASA/6/180/40</t>
+          <t>No 71, Olasuoye Str, Ijegun Amuwo Odofin Lagos.</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
@@ -11551,7 +11431,7 @@
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="U100" t="inlineStr">
@@ -11567,2027 +11447,30 @@
       </c>
       <c r="AN100" t="inlineStr">
         <is>
-          <t>Main building, landlord Apartment. Mr Ilori</t>
+          <t>A boungalow building.</t>
         </is>
       </c>
       <c r="AO100" t="inlineStr">
         <is>
-          <t>Spouse/Partner</t>
+          <t>Head of Household</t>
         </is>
       </c>
       <c r="AP100" t="inlineStr">
         <is>
-          <t>Mr Ilori</t>
+          <t>Mrs Ogundiran Queen</t>
         </is>
       </c>
       <c r="AQ100" t="inlineStr">
         <is>
-          <t>08098127138</t>
+          <t>08023571385</t>
         </is>
       </c>
       <c r="AS100" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="AT100" t="inlineStr">
-        <is>
-          <t>02:35:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101">
-        <v>8580</v>
-      </c>
-      <c r="B101">
-        <v>1</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>Badagry</t>
-        </is>
-      </c>
-      <c r="N101" t="inlineStr">
-        <is>
-          <t>BOLAJI STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="P101" t="inlineStr">
-        <is>
-          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U101" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V101" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN101" t="inlineStr">
-        <is>
-          <t>Fenced bungalow building.</t>
-        </is>
-      </c>
-      <c r="AO101" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP101" t="inlineStr">
-        <is>
-          <t>Mrs Willoby Edna</t>
-        </is>
-      </c>
-      <c r="AQ101" t="inlineStr">
-        <is>
-          <t>08036210268</t>
-        </is>
-      </c>
-      <c r="AS101" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="AT101" t="inlineStr">
-        <is>
-          <t>11:33:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102">
-        <v>8580</v>
-      </c>
-      <c r="B102">
-        <v>1</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H102">
-        <v>1</v>
-      </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>Badagry</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>BOLAJI STREET, OKO-AFO</t>
-        </is>
-      </c>
-      <c r="P102" t="inlineStr">
-        <is>
-          <t>Plot 4, teachers Quarter off Ben Awamneze str Oko Afo Badagry.</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V102" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN102" t="inlineStr">
-        <is>
-          <t>Fenced bungalow building.</t>
-        </is>
-      </c>
-      <c r="AO102" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP102" t="inlineStr">
-        <is>
-          <t>Mrs Willoby Edna</t>
-        </is>
-      </c>
-      <c r="AQ102" t="inlineStr">
-        <is>
-          <t>08036210268</t>
-        </is>
-      </c>
-      <c r="AS102" t="inlineStr">
-        <is>
-          <t>Thursday</t>
-        </is>
-      </c>
-      <c r="AT102" t="inlineStr">
-        <is>
-          <t>11:33:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103">
-        <v>9062</v>
-      </c>
-      <c r="B103">
-        <v>5</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H103">
-        <v>1</v>
-      </c>
-      <c r="I103">
-        <v>1</v>
-      </c>
-      <c r="J103">
-        <v>2</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>Alimosho</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
-        </is>
-      </c>
-      <c r="P103" t="inlineStr">
-        <is>
-          <t>16 fatade street ikotun ijegun</t>
-        </is>
-      </c>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>tab8</t>
-        </is>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>MICHAEL GLORIA
-JOSIAH OGUNJOBI</t>
-        </is>
-      </c>
-      <c r="V103" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN103" t="inlineStr">
-        <is>
-          <t>Room 6</t>
-        </is>
-      </c>
-      <c r="AO103" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP103" t="inlineStr">
-        <is>
-          <t>Daniel Eze</t>
-        </is>
-      </c>
-      <c r="AS103" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT103" t="inlineStr">
-        <is>
-          <t>12:52:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104">
-        <v>9072</v>
-      </c>
-      <c r="B104">
-        <v>1</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H104">
-        <v>1</v>
-      </c>
-      <c r="I104">
-        <v>1</v>
-      </c>
-      <c r="J104">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>Alimosho</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>AKINTABI STREET/AJAO BAKERY, IJEGUN</t>
-        </is>
-      </c>
-      <c r="P104" t="inlineStr">
-        <is>
-          <t>12 Anani street ikotun ijegun road</t>
-        </is>
-      </c>
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>Room 1</t>
-        </is>
-      </c>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>tab8</t>
-        </is>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U104" t="inlineStr">
-        <is>
-          <t>MICHAEL GLORIA
-JOSIAH OGUNJOBI</t>
-        </is>
-      </c>
-      <c r="V104" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN104" t="inlineStr">
-        <is>
-          <t>Room 1</t>
-        </is>
-      </c>
-      <c r="AO104" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP104" t="inlineStr">
-        <is>
-          <t>Aishat isah</t>
-        </is>
-      </c>
-      <c r="AQ104" t="inlineStr">
-        <is>
-          <t>08124889891</t>
-        </is>
-      </c>
-      <c r="AS104" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT104" t="inlineStr">
-        <is>
-          <t>14:24:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105">
-        <v>9108</v>
-      </c>
-      <c r="B105">
-        <v>2</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>Lagos Mainland</t>
-        </is>
-      </c>
-      <c r="N105" t="inlineStr">
-        <is>
-          <t>AIYETORO STREET, MAKOKO</t>
-        </is>
-      </c>
-      <c r="P105" t="inlineStr">
-        <is>
-          <t>16 Aiyetoro Street Makoko lagos</t>
-        </is>
-      </c>
-      <c r="S105" t="inlineStr">
-        <is>
-          <t>tab6</t>
-        </is>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U105" t="inlineStr">
-        <is>
-          <t>ODIAGBE JOHN
-BANKE OLOWU</t>
-        </is>
-      </c>
-      <c r="V105" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AO105" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="AP105" t="inlineStr">
-        <is>
-          <t>Alore Tanes</t>
-        </is>
-      </c>
-      <c r="AR105" t="inlineStr">
-        <is>
-          <t>09058981549</t>
-        </is>
-      </c>
-      <c r="AS105" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT105" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106">
-        <v>9108</v>
-      </c>
-      <c r="B106">
-        <v>2</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>Lagos Mainland</t>
-        </is>
-      </c>
-      <c r="N106" t="inlineStr">
-        <is>
-          <t>AIYETORO STREET, MAKOKO</t>
-        </is>
-      </c>
-      <c r="P106" t="inlineStr">
-        <is>
-          <t>16 Aiyetoro Street Makoko lagos</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
-        <is>
-          <t>tab6</t>
-        </is>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U106" t="inlineStr">
-        <is>
-          <t>ODIAGBE JOHN
-BANKE OLOWU</t>
-        </is>
-      </c>
-      <c r="V106" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AO106" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="AP106" t="inlineStr">
-        <is>
-          <t>Alore Tanes</t>
-        </is>
-      </c>
-      <c r="AR106" t="inlineStr">
-        <is>
-          <t>09058981549</t>
-        </is>
-      </c>
-      <c r="AS106" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT106" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107">
-        <v>9703</v>
-      </c>
-      <c r="B107">
-        <v>7</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H107">
-        <v>1</v>
-      </c>
-      <c r="I107">
-        <v>1</v>
-      </c>
-      <c r="J107">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>Ajeromi</t>
-        </is>
-      </c>
-      <c r="N107" t="inlineStr">
-        <is>
-          <t>28, RABIU ADIO, TOLU</t>
-        </is>
-      </c>
-      <c r="P107" t="inlineStr">
-        <is>
-          <t>NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
-        </is>
-      </c>
-      <c r="S107" t="inlineStr">
-        <is>
-          <t>tab20</t>
-        </is>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="U107" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V107" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN107" t="inlineStr">
-        <is>
-          <t>ROOM 7, HOUSE NO 20,  RABBIU ADIO STREET, AJEGUNLE, AJEROMI IFELODUN, LAGOS STATE</t>
-        </is>
-      </c>
-      <c r="AO107" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP107" t="inlineStr">
-        <is>
-          <t>MR OLUFA GANIU</t>
-        </is>
-      </c>
-      <c r="AQ107" t="inlineStr">
-        <is>
-          <t>08052064955</t>
-        </is>
-      </c>
-      <c r="AS107" t="inlineStr">
-        <is>
-          <t>Monday,Tuesday,Wednesday,Thursday,Friday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT107" t="inlineStr">
-        <is>
-          <t>13:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108">
-        <v>9747</v>
-      </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H108">
-        <v>1</v>
-      </c>
-      <c r="I108">
-        <v>0</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>IDI ABA, IGBOLOGUN VIL.</t>
-        </is>
-      </c>
-      <c r="O108">
-        <v>904</v>
-      </c>
-      <c r="P108" t="inlineStr">
-        <is>
-          <t>6 Navy compound</t>
-        </is>
-      </c>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>LVASA/4/904/16</t>
-        </is>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>tab15</t>
-        </is>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V108" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN108" t="inlineStr">
-        <is>
-          <t>Navy compound</t>
-        </is>
-      </c>
-      <c r="AO108" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP108" t="inlineStr">
-        <is>
-          <t>Mrs Tosin Taju</t>
-        </is>
-      </c>
-      <c r="AQ108" t="inlineStr">
-        <is>
-          <t>09017780434</t>
-        </is>
-      </c>
-      <c r="AS108" t="inlineStr">
-        <is>
-          <t>Wednesday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT108" t="inlineStr">
-        <is>
-          <t>11:16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109">
-        <v>9747</v>
-      </c>
-      <c r="B109">
-        <v>1</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H109">
-        <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N109" t="inlineStr">
-        <is>
-          <t>IDI ABA, IGBOLOGUN VIL.</t>
-        </is>
-      </c>
-      <c r="O109">
-        <v>904</v>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>6 Navy compound</t>
-        </is>
-      </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>LVASA/4/904/16</t>
-        </is>
-      </c>
-      <c r="S109" t="inlineStr">
-        <is>
-          <t>tab15</t>
-        </is>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="U109" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V109" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN109" t="inlineStr">
-        <is>
-          <t>Navy compound</t>
-        </is>
-      </c>
-      <c r="AO109" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP109" t="inlineStr">
-        <is>
-          <t>Mrs Tosin Taju</t>
-        </is>
-      </c>
-      <c r="AQ109" t="inlineStr">
-        <is>
-          <t>09017780434</t>
-        </is>
-      </c>
-      <c r="AS109" t="inlineStr">
-        <is>
-          <t>Wednesday,Saturday,Sunday</t>
-        </is>
-      </c>
-      <c r="AT109" t="inlineStr">
-        <is>
-          <t>11:16:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110">
-        <v>9748</v>
-      </c>
-      <c r="B110">
-        <v>5</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H110">
-        <v>1</v>
-      </c>
-      <c r="I110">
-        <v>0</v>
-      </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N110" t="inlineStr">
-        <is>
-          <t>IDI ABA, IGBOLOGUN VIL.</t>
-        </is>
-      </c>
-      <c r="O110">
-        <v>904</v>
-      </c>
-      <c r="P110" t="inlineStr">
-        <is>
-          <t>3 Adugbo oya</t>
-        </is>
-      </c>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>LVASA/4/904/17</t>
-        </is>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>tab15</t>
-        </is>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V110" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN110" t="inlineStr">
-        <is>
-          <t>Within the compound</t>
-        </is>
-      </c>
-      <c r="AO110" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP110" t="inlineStr">
-        <is>
-          <t>Iya Fathia</t>
-        </is>
-      </c>
-      <c r="AQ110" t="inlineStr">
-        <is>
-          <t>09126258233</t>
-        </is>
-      </c>
-      <c r="AS110" t="inlineStr">
-        <is>
-          <t>Friday,Saturday</t>
-        </is>
-      </c>
-      <c r="AT110" t="inlineStr">
-        <is>
-          <t>03:43:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111">
-        <v>9748</v>
-      </c>
-      <c r="B111">
-        <v>5</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H111">
-        <v>1</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N111" t="inlineStr">
-        <is>
-          <t>IDI ABA, IGBOLOGUN VIL.</t>
-        </is>
-      </c>
-      <c r="O111">
-        <v>904</v>
-      </c>
-      <c r="P111" t="inlineStr">
-        <is>
-          <t>3 Adugbo oya</t>
-        </is>
-      </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>LVASA/4/904/17</t>
-        </is>
-      </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>tab15</t>
-        </is>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>2024-03-25</t>
-        </is>
-      </c>
-      <c r="U111" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V111" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN111" t="inlineStr">
-        <is>
-          <t>Within the compound</t>
-        </is>
-      </c>
-      <c r="AO111" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP111" t="inlineStr">
-        <is>
-          <t>Iya Fathia</t>
-        </is>
-      </c>
-      <c r="AQ111" t="inlineStr">
-        <is>
-          <t>09126258233</t>
-        </is>
-      </c>
-      <c r="AS111" t="inlineStr">
-        <is>
-          <t>Friday,Saturday</t>
-        </is>
-      </c>
-      <c r="AT111" t="inlineStr">
-        <is>
-          <t>03:43:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112">
-        <v>9758</v>
-      </c>
-      <c r="B112">
-        <v>10</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H112">
-        <v>1</v>
-      </c>
-      <c r="I112">
-        <v>1</v>
-      </c>
-      <c r="J112">
-        <v>2</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N112" t="inlineStr">
-        <is>
-          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P112" t="inlineStr">
-        <is>
-          <t>No 1, Sheibu Str. Masa Masa</t>
-        </is>
-      </c>
-      <c r="S112" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>2024-03-22</t>
-        </is>
-      </c>
-      <c r="U112" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V112" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN112" t="inlineStr">
-        <is>
-          <t>4th rm on the left within the main building</t>
-        </is>
-      </c>
-      <c r="AO112" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP112" t="inlineStr">
-        <is>
-          <t>Mrs Abidemi Akabogu</t>
-        </is>
-      </c>
-      <c r="AQ112" t="inlineStr">
-        <is>
-          <t>07066029679</t>
-        </is>
-      </c>
-      <c r="AS112" t="inlineStr">
-        <is>
-          <t>Sunday</t>
-        </is>
-      </c>
-      <c r="AT112" t="inlineStr">
-        <is>
-          <t>12:57:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113">
-        <v>9760</v>
-      </c>
-      <c r="B113">
-        <v>11</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>1</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
-        <v>1</v>
-      </c>
-      <c r="J113">
-        <v>3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
-        <is>
-          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P113" t="inlineStr">
-        <is>
-          <t>11, Moshalashi street Amuwo Odofin Lagos</t>
-        </is>
-      </c>
-      <c r="S113" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>2024-03-23</t>
-        </is>
-      </c>
-      <c r="U113" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V113" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN113" t="inlineStr">
-        <is>
-          <t>The 8th room on the right within the bungalow building</t>
-        </is>
-      </c>
-      <c r="AO113" t="inlineStr">
-        <is>
-          <t>Other (Specify)</t>
-        </is>
-      </c>
-      <c r="AP113" t="inlineStr">
-        <is>
-          <t>Baba Divine</t>
-        </is>
-      </c>
-      <c r="AR113" t="inlineStr">
-        <is>
-          <t>08088215719</t>
-        </is>
-      </c>
-      <c r="AS113" t="inlineStr">
-        <is>
-          <t>Friday</t>
-        </is>
-      </c>
-      <c r="AT113" t="inlineStr">
-        <is>
-          <t>12:31:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
-        <v>9769</v>
-      </c>
-      <c r="B114">
-        <v>7</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H114">
-        <v>1</v>
-      </c>
-      <c r="I114">
-        <v>1</v>
-      </c>
-      <c r="J114">
-        <v>3</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr">
-        <is>
-          <t>SHAIBU / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P114" t="inlineStr">
-        <is>
-          <t>No19, Moshalashi str Masa Masa Amuwo Odofin Lagos.</t>
-        </is>
-      </c>
-      <c r="S114" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>2024-03-23</t>
-        </is>
-      </c>
-      <c r="U114" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V114" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN114" t="inlineStr">
-        <is>
-          <t>1st building on the 4th</t>
-        </is>
-      </c>
-      <c r="AO114" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="AP114" t="inlineStr">
-        <is>
-          <t>Mr Sotemesi Ajasa</t>
-        </is>
-      </c>
-      <c r="AQ114" t="inlineStr">
-        <is>
-          <t>08033952012</t>
-        </is>
-      </c>
-      <c r="AS114" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="AT114" t="inlineStr">
-        <is>
-          <t>11:17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115">
-        <v>9777</v>
-      </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H115">
-        <v>1</v>
-      </c>
-      <c r="I115">
-        <v>1</v>
-      </c>
-      <c r="J115">
-        <v>5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P115" t="inlineStr">
-        <is>
-          <t>21, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
-        </is>
-      </c>
-      <c r="S115" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>2024-03-24</t>
-        </is>
-      </c>
-      <c r="U115" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V115" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN115" t="inlineStr">
-        <is>
-          <t>The first room by the left within the bungalow building</t>
-        </is>
-      </c>
-      <c r="AO115" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="AP115" t="inlineStr">
-        <is>
-          <t>Mr Sheu Raheem</t>
-        </is>
-      </c>
-      <c r="AR115" t="inlineStr">
-        <is>
-          <t>08084941265</t>
-        </is>
-      </c>
-      <c r="AS115" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="AT115" t="inlineStr">
-        <is>
-          <t>13:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116">
-        <v>9779</v>
-      </c>
-      <c r="B116">
-        <v>2</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>1</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H116">
-        <v>1</v>
-      </c>
-      <c r="I116">
-        <v>1</v>
-      </c>
-      <c r="J116">
-        <v>2</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P116" t="inlineStr">
-        <is>
-          <t>25, Olayemi str off old Ojo road Mazamaza Amuwo Odofin Lagos</t>
-        </is>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>2024-03-24</t>
-        </is>
-      </c>
-      <c r="U116" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V116" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN116" t="inlineStr">
-        <is>
-          <t>The second room by the right within the bungalow building</t>
-        </is>
-      </c>
-      <c r="AO116" t="inlineStr">
-        <is>
-          <t>Spouse/Partner</t>
-        </is>
-      </c>
-      <c r="AP116" t="inlineStr">
-        <is>
-          <t>Mr Anaba Muyiwa</t>
-        </is>
-      </c>
-      <c r="AQ116" t="inlineStr">
-        <is>
-          <t>08029972064</t>
-        </is>
-      </c>
-      <c r="AS116" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="AT116" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117">
-        <v>9791</v>
-      </c>
-      <c r="B117">
-        <v>7</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>1</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H117">
-        <v>1</v>
-      </c>
-      <c r="I117">
-        <v>1</v>
-      </c>
-      <c r="J117">
-        <v>4</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>MOSALASHI / OLAYEMI STREET, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P117" t="inlineStr">
-        <is>
-          <t>No 26, Olayemi str Masa Masa, Odofin Lagos.</t>
-        </is>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>2024-03-24</t>
-        </is>
-      </c>
-      <c r="U117" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V117" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN117" t="inlineStr">
-        <is>
-          <t>Room within the building.</t>
-        </is>
-      </c>
-      <c r="AO117" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP117" t="inlineStr">
-        <is>
-          <t>Mr Edna Sunday</t>
-        </is>
-      </c>
-      <c r="AQ117" t="inlineStr">
-        <is>
-          <t>08110210412</t>
-        </is>
-      </c>
-      <c r="AS117" t="inlineStr">
-        <is>
-          <t>Tuesday</t>
-        </is>
-      </c>
-      <c r="AT117" t="inlineStr">
-        <is>
-          <t>05:57:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118">
-        <v>9796</v>
-      </c>
-      <c r="B118">
-        <v>4</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H118">
-        <v>1</v>
-      </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
-      <c r="J118">
-        <v>2</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>SAIBU /BADUM / YUSUF, MASAMASA</t>
-        </is>
-      </c>
-      <c r="P118" t="inlineStr">
-        <is>
-          <t>4, Shaibu Close, Villa Park</t>
-        </is>
-      </c>
-      <c r="S118" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>2024-03-24</t>
-        </is>
-      </c>
-      <c r="U118" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V118" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN118" t="inlineStr">
-        <is>
-          <t>The 4th room within the BQ in the compound</t>
-        </is>
-      </c>
-      <c r="AO118" t="inlineStr">
-        <is>
-          <t>Adult Child</t>
-        </is>
-      </c>
-      <c r="AP118" t="inlineStr">
-        <is>
-          <t>Mr Kolawole Isa</t>
-        </is>
-      </c>
-      <c r="AR118" t="inlineStr">
-        <is>
-          <t>09156506365</t>
-        </is>
-      </c>
-      <c r="AS118" t="inlineStr">
-        <is>
-          <t>Saturday</t>
-        </is>
-      </c>
-      <c r="AT118" t="inlineStr">
-        <is>
-          <t>13:06:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119">
-        <v>10154</v>
-      </c>
-      <c r="B119">
-        <v>1</v>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H119">
-        <v>9</v>
-      </c>
-      <c r="I119">
-        <v>1</v>
-      </c>
-      <c r="J119">
-        <v>5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>Amuwo odofin</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>ETAOKO STREET/OLASUIYE, IJEGUN</t>
-        </is>
-      </c>
-      <c r="P119" t="inlineStr">
-        <is>
-          <t>No 71, Olasuoye Str, Ijegun Amuwo Odofin Lagos.</t>
-        </is>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>tab4</t>
-        </is>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>2024-03-27</t>
-        </is>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>NA
-NA</t>
-        </is>
-      </c>
-      <c r="V119" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="AN119" t="inlineStr">
-        <is>
-          <t>A boungalow building.</t>
-        </is>
-      </c>
-      <c r="AO119" t="inlineStr">
-        <is>
-          <t>Head of Household</t>
-        </is>
-      </c>
-      <c r="AP119" t="inlineStr">
-        <is>
-          <t>Mrs Ogundiran Queen</t>
-        </is>
-      </c>
-      <c r="AQ119" t="inlineStr">
-        <is>
-          <t>08023571385</t>
-        </is>
-      </c>
-      <c r="AS119" t="inlineStr">
-        <is>
-          <t>Monday</t>
-        </is>
-      </c>
-      <c r="AT119" t="inlineStr">
         <is>
           <t>09:27:00</t>
         </is>
